--- a/Camellia/Camellia TPS.xlsx
+++ b/Camellia/Camellia TPS.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="991">
   <si>
     <t>uniprotkb_id</t>
   </si>
@@ -1294,30 +1289,2071 @@
   </si>
   <si>
     <t xml:space="preserve">UPI000E3369E9 </t>
+  </si>
+  <si>
+    <t>PMC3650682</t>
+  </si>
+  <si>
+    <t>SmTPS9</t>
+  </si>
+  <si>
+    <t>SmTPS10</t>
+  </si>
+  <si>
+    <t>flavone synthases</t>
+  </si>
+  <si>
+    <t>monoterpene synthase</t>
+  </si>
+  <si>
+    <t>sesquiterpene synthases</t>
+  </si>
+  <si>
+    <t>terpene synthases</t>
+  </si>
+  <si>
+    <t>diterpene synthases</t>
+  </si>
+  <si>
+    <t>polyketide synthases</t>
+  </si>
+  <si>
+    <t>PMC4347605</t>
+  </si>
+  <si>
+    <t>terpenoid synthases</t>
+  </si>
+  <si>
+    <t>germacrene A synthases</t>
+  </si>
+  <si>
+    <t>sesquiterpene δ-selinene synthases</t>
+  </si>
+  <si>
+    <t>γ-humulene synthases</t>
+  </si>
+  <si>
+    <t>(Z)-γ-bisabolene synthases</t>
+  </si>
+  <si>
+    <t>AtTPS</t>
+  </si>
+  <si>
+    <t>sesquiterpene α-farnesene synthase</t>
+  </si>
+  <si>
+    <t>sesquiterpene α-zingiberene synthase</t>
+  </si>
+  <si>
+    <t>α-β-terpenoid synthases</t>
+  </si>
+  <si>
+    <t>α-zingiberene synthase</t>
+  </si>
+  <si>
+    <t>myrcene synthase</t>
+  </si>
+  <si>
+    <t>α-farnesene synthase</t>
+  </si>
+  <si>
+    <t>δ-selinene synthase</t>
+  </si>
+  <si>
+    <t>5-epi-aristolochene synthase</t>
+  </si>
+  <si>
+    <t>2-pyrone synthase</t>
+  </si>
+  <si>
+    <t>chalcone synthase</t>
+  </si>
+  <si>
+    <t>pentaketide chromone synthase</t>
+  </si>
+  <si>
+    <t>stilbene synthase</t>
+  </si>
+  <si>
+    <t>octaketide synthase (OKS)</t>
+  </si>
+  <si>
+    <t>pentaketide chromone synthase (PCS)</t>
+  </si>
+  <si>
+    <t>orsellinic acid synthas</t>
+  </si>
+  <si>
+    <t>psoralen synthase</t>
+  </si>
+  <si>
+    <t>PMC4588909</t>
+  </si>
+  <si>
+    <t>spermidine synthase</t>
+  </si>
+  <si>
+    <t>leuA; 2-isopropylmalate synthase</t>
+  </si>
+  <si>
+    <t>tryptophan synthase</t>
+  </si>
+  <si>
+    <t>aroB; 3-dehydroquinate synthase</t>
+  </si>
+  <si>
+    <t>phytoene synthase</t>
+  </si>
+  <si>
+    <t>eugenol synthase</t>
+  </si>
+  <si>
+    <t>triterpene synthase</t>
+  </si>
+  <si>
+    <t>amyrin synthase</t>
+  </si>
+  <si>
+    <t>PMC4645219</t>
+  </si>
+  <si>
+    <t>TPS2</t>
+  </si>
+  <si>
+    <t>TPS3</t>
+  </si>
+  <si>
+    <t>phenylacetaldehyde synthase (PAAS)</t>
+  </si>
+  <si>
+    <t>phenylacetaldehyde synthase. PAR</t>
+  </si>
+  <si>
+    <t>PMC4654506</t>
+  </si>
+  <si>
+    <t>3S-Linalool synthase-1</t>
+  </si>
+  <si>
+    <t>(E)-β-ocimene and myrcene synthase</t>
+  </si>
+  <si>
+    <t>tricyclene synthase [TPS3]</t>
+  </si>
+  <si>
+    <t>geranyldiphosphatesynthase</t>
+  </si>
+  <si>
+    <t>deoxy-D-xylulose 5-phosphate synthase, DXS</t>
+  </si>
+  <si>
+    <t>anthocyanidin synthase, ANS</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)- butenyl-4-diphosphate synthase (HDS)</t>
+  </si>
+  <si>
+    <t>2-C-methyl-D-erythritol-2,4-cyclodiphosphate synthase (MDS)</t>
+  </si>
+  <si>
+    <t>3-hydroxy-3-methylglutaryl-CoA synthase (HMGR)</t>
+  </si>
+  <si>
+    <t>anthocyanidin synthase (ANS)</t>
+  </si>
+  <si>
+    <t>PMC5086397</t>
+  </si>
+  <si>
+    <t>inducible nitric oxide synthase (iNOS)</t>
+  </si>
+  <si>
+    <t>callose synthase</t>
+  </si>
+  <si>
+    <t>Glutamate synthase (GOGAT)</t>
+  </si>
+  <si>
+    <t>PMC5412298</t>
+  </si>
+  <si>
+    <t>TPS08</t>
+  </si>
+  <si>
+    <t>1-aminocyclopropane-1-carboxylic acid (ACC) synthase</t>
+  </si>
+  <si>
+    <t>PMC5700130</t>
+  </si>
+  <si>
+    <t>GPS (geranyl pyrophosphate synthase)</t>
+  </si>
+  <si>
+    <t>farnesyl pyrophosphate synthase</t>
+  </si>
+  <si>
+    <t>d GGPS (geranylgeranyl pyrophosphate synthase)</t>
+  </si>
+  <si>
+    <t>1(1-deoxy-D-xylulose-5-phosphate synthase 4, 1</t>
+  </si>
+  <si>
+    <t>SoISPF (2-C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
+  </si>
+  <si>
+    <t>SoHDS2 ((E)-4-hydroxy-3-methylbut2-enyl-diphosphate synthase 2</t>
+  </si>
+  <si>
+    <t>SoHMGS (hydroxymethyl glutaryl-CoA synthase)</t>
+  </si>
+  <si>
+    <t>ocimene synthase</t>
+  </si>
+  <si>
+    <t>1,8-cineole synthase</t>
+  </si>
+  <si>
+    <t>(+)-sabinene synthase</t>
+  </si>
+  <si>
+    <t>β-caryophyllene synthase</t>
+  </si>
+  <si>
+    <t>(−)-germacrene D synthase</t>
+  </si>
+  <si>
+    <t>momilactone-A synthase</t>
+  </si>
+  <si>
+    <t>ent-copalyl diphosphate synthase</t>
+  </si>
+  <si>
+    <t>ent-kaurene synthase</t>
+  </si>
+  <si>
+    <t>beta-amyrin synthase</t>
+  </si>
+  <si>
+    <t>SoDXS: 1-deoxy-D-xylulose-5-phosphate synthase</t>
+  </si>
+  <si>
+    <t>SoISPF: 2-C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
+  </si>
+  <si>
+    <t>SoHDS:(E)-4-hydroxy-3-methylbut-2-enyldiphosphate synthase</t>
+  </si>
+  <si>
+    <t>SoHMGS: hydroxyl methyl glutarylCoA synthase</t>
+  </si>
+  <si>
+    <t>SoGPS: geranyl pyrophosphate synthase</t>
+  </si>
+  <si>
+    <t>SoFPPS: farnesyl pyrophosphate synthase</t>
+  </si>
+  <si>
+    <t>SoGGPS: geranylgeranyl pyrophosphate synthase</t>
+  </si>
+  <si>
+    <t>SoSPS: all-trans-nonaprenyl-diphosphate synthase</t>
+  </si>
+  <si>
+    <t>polycis-polyprenyl diphosphate synthase</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose-5- phosphate synthase</t>
+  </si>
+  <si>
+    <t>ISPF: 2-C-methyl-D-erythritol 2,4-cyclodiphos-phate synthase</t>
+  </si>
+  <si>
+    <t>HDS:(E)- 4-hydroxy-3-methylbut-2-enyl-diphosphate synthase</t>
+  </si>
+  <si>
+    <t>squalene synthase (SQS)</t>
+  </si>
+  <si>
+    <t>camelliol C synthase</t>
+  </si>
+  <si>
+    <t>SoGGPSΙΙ10, ent-copalyl diphosphate synthase</t>
+  </si>
+  <si>
+    <t>myrcene/ocimene synthase (SoMYRS</t>
+  </si>
+  <si>
+    <t>(SoMYRS; comp11163_c0) 1,8-cineole synthase</t>
+  </si>
+  <si>
+    <t>(3S)-linalool synthase-2 (SoLINS)</t>
+  </si>
+  <si>
+    <t>β-caryophyllene synthase (SoHUMS;comp101158_c0)</t>
+  </si>
+  <si>
+    <t>(+)-sabinene synthase (SoSABS;</t>
+  </si>
+  <si>
+    <t>CINO:1,8-cineole synthase</t>
+  </si>
+  <si>
+    <t>E-KS:ent-kaurene synthase</t>
+  </si>
+  <si>
+    <t>MAS:momilactone-A synthas</t>
+  </si>
+  <si>
+    <t>E-CDS: ent-copalyl diphosphate synthase.</t>
+  </si>
+  <si>
+    <t>(3S)-linalool synthase-2</t>
+  </si>
+  <si>
+    <t>gibberellin 3-beta-dioxygenase</t>
+  </si>
+  <si>
+    <t>gibberellin 2- oxidase</t>
+  </si>
+  <si>
+    <t>1,8-cineole synthase (SoCINS)</t>
+  </si>
+  <si>
+    <t>Epicubenol synthase</t>
+  </si>
+  <si>
+    <t>delta cadinene synthase</t>
+  </si>
+  <si>
+    <t>(+)- bornyl diphosphate synthase</t>
+  </si>
+  <si>
+    <t>SoTPS6</t>
+  </si>
+  <si>
+    <t>SoTPS6-F</t>
+  </si>
+  <si>
+    <t>SoTPS6-R</t>
+  </si>
+  <si>
+    <t>PMC5982726</t>
+  </si>
+  <si>
+    <t>sucrose synthase (SUS)</t>
+  </si>
+  <si>
+    <t>S-norcoclaurine synthase</t>
+  </si>
+  <si>
+    <t>cellulose synthases</t>
+  </si>
+  <si>
+    <t>pinene synthase</t>
+  </si>
+  <si>
+    <t>sucrose-phosphate synthase</t>
+  </si>
+  <si>
+    <t>PMC6003189</t>
+  </si>
+  <si>
+    <t>TPS-B</t>
+  </si>
+  <si>
+    <t>Isoprene synthase (IspS)</t>
+  </si>
+  <si>
+    <t>PMC6007066</t>
+  </si>
+  <si>
+    <t>farnesene synthase</t>
+  </si>
+  <si>
+    <t>[E]-nerolidol synthase [LIS]</t>
+  </si>
+  <si>
+    <t>(E)-nerolidol synthase</t>
+  </si>
+  <si>
+    <t>PMC6102311</t>
+  </si>
+  <si>
+    <t>valerianol synthase</t>
+  </si>
+  <si>
+    <t>hedycaryol synthase</t>
+  </si>
+  <si>
+    <t>β-eudesmol synthase</t>
+  </si>
+  <si>
+    <t>(E)-α-bergamotene synthase (VvABS)</t>
+  </si>
+  <si>
+    <t>(E)-β-caryophyllene synthase (VvBCaS)</t>
+  </si>
+  <si>
+    <t>β-curcumene synthase (VvBCuS)</t>
+  </si>
+  <si>
+    <t>α-humulene synthase (ZzZSS1)</t>
+  </si>
+  <si>
+    <t>(S)-β-bisabolene synthase</t>
+  </si>
+  <si>
+    <t>isoprenoid synthase</t>
+  </si>
+  <si>
+    <t>f (+)-δ-cadinene synthase</t>
+  </si>
+  <si>
+    <t>ChTps1</t>
+  </si>
+  <si>
+    <t>siTPS8</t>
+  </si>
+  <si>
+    <t>CbTps1</t>
+  </si>
+  <si>
+    <t>CsTps1</t>
+  </si>
+  <si>
+    <t>ChTps1b</t>
+  </si>
+  <si>
+    <t>ChTps1c</t>
+  </si>
+  <si>
+    <t>ChTps1d</t>
+  </si>
+  <si>
+    <t>ChTps1e</t>
+  </si>
+  <si>
+    <t>ChTps1f</t>
+  </si>
+  <si>
+    <t>ChTps1g</t>
+  </si>
+  <si>
+    <t>ChTps1a</t>
+  </si>
+  <si>
+    <t>CsiTPS8</t>
+  </si>
+  <si>
+    <t>ChTps1a-g</t>
+  </si>
+  <si>
+    <t>ZoTPS1</t>
+  </si>
+  <si>
+    <t>ZmTPS4</t>
+  </si>
+  <si>
+    <t>ZmTPS5</t>
+  </si>
+  <si>
+    <t>ZmTPS6</t>
+  </si>
+  <si>
+    <t>ZmTPS10</t>
+  </si>
+  <si>
+    <t>ZmTPS11</t>
+  </si>
+  <si>
+    <t>PtTPS5</t>
+  </si>
+  <si>
+    <t>PtTPS7</t>
+  </si>
+  <si>
+    <t>PtTPS8</t>
+  </si>
+  <si>
+    <t>PtTPS9</t>
+  </si>
+  <si>
+    <t>PtTPS11</t>
+  </si>
+  <si>
+    <t>PtTPS14</t>
+  </si>
+  <si>
+    <t>SaSesquiTPS</t>
+  </si>
+  <si>
+    <t>SauSesquiTPS</t>
+  </si>
+  <si>
+    <t>SmSesquiTPS</t>
+  </si>
+  <si>
+    <t>SspiSesquiTPS</t>
+  </si>
+  <si>
+    <t>NbTPS1</t>
+  </si>
+  <si>
+    <t>GhTPS1</t>
+  </si>
+  <si>
+    <t>ShTPS9</t>
+  </si>
+  <si>
+    <t>ShTPS12</t>
+  </si>
+  <si>
+    <t>ShTPS14a</t>
+  </si>
+  <si>
+    <t>ShTPS14b</t>
+  </si>
+  <si>
+    <t>ShTPS15b</t>
+  </si>
+  <si>
+    <t>SlTPS16</t>
+  </si>
+  <si>
+    <t>SlTPS17</t>
+  </si>
+  <si>
+    <t>SlTPS31</t>
+  </si>
+  <si>
+    <t>CsiTPS4</t>
+  </si>
+  <si>
+    <t>VvTps</t>
+  </si>
+  <si>
+    <t>VvTPS57</t>
+  </si>
+  <si>
+    <t>ZmTPS</t>
+  </si>
+  <si>
+    <t>ChTps1s</t>
+  </si>
+  <si>
+    <t>ChTps1a-c</t>
+  </si>
+  <si>
+    <t>pRSF-ChTps1</t>
+  </si>
+  <si>
+    <t>PMC6273672</t>
+  </si>
+  <si>
+    <t>Indole-3-glycerolphosphate synthase</t>
+  </si>
+  <si>
+    <t>PMC6289780</t>
+  </si>
+  <si>
+    <t>taxadiene synthase</t>
+  </si>
+  <si>
+    <t>hydroxylmethylglutaryl-CoA synthase</t>
+  </si>
+  <si>
+    <t>Cis-muuroladiene synthase</t>
+  </si>
+  <si>
+    <t>Gamma-cadinene synthase</t>
+  </si>
+  <si>
+    <t>Bicyclogermacrene synthase</t>
+  </si>
+  <si>
+    <t>Ent-kaurene synthase-1</t>
+  </si>
+  <si>
+    <t>Ent-kaurene synthase-5</t>
+  </si>
+  <si>
+    <t>Ent-kaurene synthase-3</t>
+  </si>
+  <si>
+    <t>Ent-kaurene synthase-4</t>
+  </si>
+  <si>
+    <t>Ent-kaurene synthase-2</t>
+  </si>
+  <si>
+    <t>Ent-kaurene synthase-6</t>
+  </si>
+  <si>
+    <t>geranyl diphosphate synthases</t>
+  </si>
+  <si>
+    <t>(E, E)-geranyl linalool synthase</t>
+  </si>
+  <si>
+    <t>geraniol isomerase synthase</t>
+  </si>
+  <si>
+    <t>valencene synthase</t>
+  </si>
+  <si>
+    <t>2-4-cyclodiphos-phate synthase</t>
+  </si>
+  <si>
+    <t>(E)-4-hydroxy-3-methylbut-2-enyl-diphosphate synthase</t>
+  </si>
+  <si>
+    <t>SgBeta-amyrin synthase</t>
+  </si>
+  <si>
+    <t>neomenthol synthase-1</t>
+  </si>
+  <si>
+    <t>neomenthol synthase-2</t>
+  </si>
+  <si>
+    <t>neomenthol synthase-3</t>
+  </si>
+  <si>
+    <t>TPS-3-Selinene synthase</t>
+  </si>
+  <si>
+    <t>(-)-alpha-terpineol synthase</t>
+  </si>
+  <si>
+    <t>Trichodiene synthase</t>
+  </si>
+  <si>
+    <t>SgTPS-1</t>
+  </si>
+  <si>
+    <t>SgTPS-3</t>
+  </si>
+  <si>
+    <t>SgTPS-6</t>
+  </si>
+  <si>
+    <t>SgTPS-V</t>
+  </si>
+  <si>
+    <t>TPS-6</t>
+  </si>
+  <si>
+    <t>TPS-3</t>
+  </si>
+  <si>
+    <t>TPS-4</t>
+  </si>
+  <si>
+    <t>TPSa</t>
+  </si>
+  <si>
+    <t>TPSb</t>
+  </si>
+  <si>
+    <t>TPSc</t>
+  </si>
+  <si>
+    <t>TPSd</t>
+  </si>
+  <si>
+    <t>TPSe</t>
+  </si>
+  <si>
+    <t>TPSf</t>
+  </si>
+  <si>
+    <t>TPSg</t>
+  </si>
+  <si>
+    <t>TPSh</t>
+  </si>
+  <si>
+    <t>PMC6349920</t>
+  </si>
+  <si>
+    <t>flavonol synthase(FLS)</t>
+  </si>
+  <si>
+    <t>OsTPS3</t>
+  </si>
+  <si>
+    <t>PMC6473938</t>
+  </si>
+  <si>
+    <t>CitTPS16</t>
+  </si>
+  <si>
+    <t>AtTPS03</t>
+  </si>
+  <si>
+    <t>PMC6747315</t>
+  </si>
+  <si>
+    <t>α-farnesene synthase (AFS)</t>
+  </si>
+  <si>
+    <t>Tps-d1</t>
+  </si>
+  <si>
+    <t>(E,E)-α-Farnesene synthase</t>
+  </si>
+  <si>
+    <t>(E)-β-Farnesene Synthase</t>
+  </si>
+  <si>
+    <t>(E)-β-ocimene synthase</t>
+  </si>
+  <si>
+    <t>1-aminocyclopropane-1-carboxylate synthase</t>
+  </si>
+  <si>
+    <t>isochorismate synthase 1 (ICS1)</t>
+  </si>
+  <si>
+    <t>(+)-α-pinene synthase</t>
+  </si>
+  <si>
+    <t>(−)-α-pinene synthase</t>
+  </si>
+  <si>
+    <t>PMC6767024</t>
+  </si>
+  <si>
+    <t>germacradienol synthase</t>
+  </si>
+  <si>
+    <t>PMC6976640</t>
+  </si>
+  <si>
+    <t>farnesyl diphosphate synthase (FPS)</t>
+  </si>
+  <si>
+    <t>MDS (2- C-methyl-D-erythritol 2,4-cyclodiphosphate synthase)</t>
+  </si>
+  <si>
+    <t>allene oxide synthase(AOS)</t>
+  </si>
+  <si>
+    <t>cytosolic nerolidol synthase</t>
+  </si>
+  <si>
+    <t>sesqui-terpenoid synthases</t>
+  </si>
+  <si>
+    <t>CsTPS67</t>
+  </si>
+  <si>
+    <t>TPS80</t>
+  </si>
+  <si>
+    <t>CsTPS57</t>
+  </si>
+  <si>
+    <t>CsTPS76</t>
+  </si>
+  <si>
+    <t>CsTPS78</t>
+  </si>
+  <si>
+    <t>CsTPS24</t>
+  </si>
+  <si>
+    <t>CsTPS-37</t>
+  </si>
+  <si>
+    <t>CsTPS-41</t>
+  </si>
+  <si>
+    <t>CsTPS-67</t>
+  </si>
+  <si>
+    <t>CsTPS22</t>
+  </si>
+  <si>
+    <t>CsTPS23</t>
+  </si>
+  <si>
+    <t>CsTPS43</t>
+  </si>
+  <si>
+    <t>CsTPS58</t>
+  </si>
+  <si>
+    <t>CsTPS17</t>
+  </si>
+  <si>
+    <t>CsTPS59</t>
+  </si>
+  <si>
+    <t>CsTPS69</t>
+  </si>
+  <si>
+    <t>CsTPS70</t>
+  </si>
+  <si>
+    <t>CsTPS71</t>
+  </si>
+  <si>
+    <t>CsTPS25</t>
+  </si>
+  <si>
+    <t>CsTPS26</t>
+  </si>
+  <si>
+    <t>CsTPS40</t>
+  </si>
+  <si>
+    <t>CsTPS56</t>
+  </si>
+  <si>
+    <t>CsTPS62</t>
+  </si>
+  <si>
+    <t>CsTPS63</t>
+  </si>
+  <si>
+    <t>TPS07</t>
+  </si>
+  <si>
+    <t>TPS11</t>
+  </si>
+  <si>
+    <t>TPS12</t>
+  </si>
+  <si>
+    <t>TPS14</t>
+  </si>
+  <si>
+    <t>TPS18</t>
+  </si>
+  <si>
+    <t>TPS20</t>
+  </si>
+  <si>
+    <t>TPS49</t>
+  </si>
+  <si>
+    <t>TPS53</t>
+  </si>
+  <si>
+    <t>TPS57</t>
+  </si>
+  <si>
+    <t>CsTPS08</t>
+  </si>
+  <si>
+    <t>CsTPS28</t>
+  </si>
+  <si>
+    <t>CsTPS32</t>
+  </si>
+  <si>
+    <t>CsTPS35</t>
+  </si>
+  <si>
+    <t>CsTPS36</t>
+  </si>
+  <si>
+    <t>CsTPS02</t>
+  </si>
+  <si>
+    <t>CsTPS03</t>
+  </si>
+  <si>
+    <t>CsTPS04</t>
+  </si>
+  <si>
+    <t>CsTPS05</t>
+  </si>
+  <si>
+    <t>CsTPS21</t>
+  </si>
+  <si>
+    <t>CsTPS29</t>
+  </si>
+  <si>
+    <t>CsTPS42</t>
+  </si>
+  <si>
+    <t>CsTPS45</t>
+  </si>
+  <si>
+    <t>CsTPS47</t>
+  </si>
+  <si>
+    <t>CsTPS51</t>
+  </si>
+  <si>
+    <t>CsTPS73</t>
+  </si>
+  <si>
+    <t>CsTPS77</t>
+  </si>
+  <si>
+    <t>CsTPS79</t>
+  </si>
+  <si>
+    <t>CsTPS09</t>
+  </si>
+  <si>
+    <t>CsTPS10</t>
+  </si>
+  <si>
+    <t>CsTPS13</t>
+  </si>
+  <si>
+    <t>CsTPS16</t>
+  </si>
+  <si>
+    <t>CsTPS27</t>
+  </si>
+  <si>
+    <t>CsTPS33</t>
+  </si>
+  <si>
+    <t>CsTPS65</t>
+  </si>
+  <si>
+    <t>CsTPS49</t>
+  </si>
+  <si>
+    <t>CsTPS60</t>
+  </si>
+  <si>
+    <t>CsTPS46</t>
+  </si>
+  <si>
+    <t>CsTPS61</t>
+  </si>
+  <si>
+    <t>CSTPS48</t>
+  </si>
+  <si>
+    <t>CsTPS52</t>
+  </si>
+  <si>
+    <t>CsTPS54</t>
+  </si>
+  <si>
+    <t>CsTPS55</t>
+  </si>
+  <si>
+    <t>CsTPS11</t>
+  </si>
+  <si>
+    <t>CsTPS68</t>
+  </si>
+  <si>
+    <t>CsTPS74</t>
+  </si>
+  <si>
+    <t>CsTPS75</t>
+  </si>
+  <si>
+    <t>CsTPS37</t>
+  </si>
+  <si>
+    <t>CsTPS50</t>
+  </si>
+  <si>
+    <t>CsTPS66</t>
+  </si>
+  <si>
+    <t>CsTPS01</t>
+  </si>
+  <si>
+    <t>CsTPS</t>
+  </si>
+  <si>
+    <t>TPSGD_VITVI, (-)-</t>
+  </si>
+  <si>
+    <t>CsTPS07</t>
+  </si>
+  <si>
+    <t>CsTPS06</t>
+  </si>
+  <si>
+    <t>CsTPS12</t>
+  </si>
+  <si>
+    <t>CsTPS14</t>
+  </si>
+  <si>
+    <t>CsTPS15</t>
+  </si>
+  <si>
+    <t>CsTPS18</t>
+  </si>
+  <si>
+    <t>CsTPS19</t>
+  </si>
+  <si>
+    <t>CsTPS20</t>
+  </si>
+  <si>
+    <t>CsTPS30</t>
+  </si>
+  <si>
+    <t>CsTPS31</t>
+  </si>
+  <si>
+    <t>CSTPS34</t>
+  </si>
+  <si>
+    <t>CsTPS38</t>
+  </si>
+  <si>
+    <t>CsTPS39</t>
+  </si>
+  <si>
+    <t>CsTPS44</t>
+  </si>
+  <si>
+    <t>CsTPS53</t>
+  </si>
+  <si>
+    <t>CsTPS64</t>
+  </si>
+  <si>
+    <t>CsTPS72</t>
+  </si>
+  <si>
+    <t>CsTPS80</t>
+  </si>
+  <si>
+    <t>TPS32_SOLLC</t>
+  </si>
+  <si>
+    <t>TPSVS_VITVI</t>
+  </si>
+  <si>
+    <t>5EAS4_NICAT</t>
+  </si>
+  <si>
+    <t>TPS1_RICCO</t>
+  </si>
+  <si>
+    <t>TPS9_RICCO</t>
+  </si>
+  <si>
+    <t>TPS7_RICCO</t>
+  </si>
+  <si>
+    <t>TPS2_LOTJA</t>
+  </si>
+  <si>
+    <t>TPS4_MEDTR</t>
+  </si>
+  <si>
+    <t>TPS04</t>
+  </si>
+  <si>
+    <t>TPS12_RICCO</t>
+  </si>
+  <si>
+    <t>TPS10_RICCO</t>
+  </si>
+  <si>
+    <t>TPSGD_VITVI</t>
+  </si>
+  <si>
+    <t>TPS13_RICCO</t>
+  </si>
+  <si>
+    <t>Viridiflorene synthase</t>
+  </si>
+  <si>
+    <t>5-epi-aristolochene synthase 4</t>
+  </si>
+  <si>
+    <t>Alpha-copaene synthase</t>
+  </si>
+  <si>
+    <t>terpene synthase 9</t>
+  </si>
+  <si>
+    <t>Betabisabolene synthase</t>
+  </si>
+  <si>
+    <t>Tricyclene synthase TPS4</t>
+  </si>
+  <si>
+    <t>Ent-kaur-16-ene synthase</t>
+  </si>
+  <si>
+    <t>(3S,6E)-nerolidol synthase 1</t>
+  </si>
+  <si>
+    <t>(R)-limonene synthase 1</t>
+  </si>
+  <si>
+    <t>Vetispiradiene synthase 2</t>
+  </si>
+  <si>
+    <t>Exo-alpha-bergamotene synthase</t>
+  </si>
+  <si>
+    <t>(3S,6E)-nerolidol synthase 2</t>
+  </si>
+  <si>
+    <t>Alpha-bisabolol synthase</t>
+  </si>
+  <si>
+    <t>PMC6986037</t>
+  </si>
+  <si>
+    <t>ketoacyl-ACP synthase II (KASII)</t>
+  </si>
+  <si>
+    <t>ketoacyl-ACP synthase I (KASI)</t>
+  </si>
+  <si>
+    <t>Hydroxy-methylbut-enyl Diphosphate Synthase; HDR</t>
+  </si>
+  <si>
+    <t>geranyl-geranyl diphosphate synthase 12 (GGPPS12 HDR</t>
+  </si>
+  <si>
+    <t>acyl-CoA synthase(LACS)</t>
+  </si>
+  <si>
+    <t>ketoacyl-CoA synthase (KCS)</t>
+  </si>
+  <si>
+    <t>deoxy-D-xylulose phosphate synthase(DXS)</t>
+  </si>
+  <si>
+    <t>HMGS: Hydroxy-methyl-glutaryl-CoA synthase</t>
+  </si>
+  <si>
+    <t>geraniol synthase</t>
+  </si>
+  <si>
+    <t>beta-ketoacyl-ACP synthase II(KASII)</t>
+  </si>
+  <si>
+    <t>ZaTPS03</t>
+  </si>
+  <si>
+    <t>PMC7013532</t>
+  </si>
+  <si>
+    <t>EoTPS</t>
+  </si>
+  <si>
+    <t>isoprenyl diphosphate synthases (IDSs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pheromone synthase </t>
+  </si>
+  <si>
+    <t>ATP synthase</t>
+  </si>
+  <si>
+    <t>TPS5</t>
+  </si>
+  <si>
+    <t>2-C-methyl-d-erythritol-2,4-cyclodiphohate synthase</t>
+  </si>
+  <si>
+    <t>1-hydroxyl-2-methyl-2-(E)-butenyl-diphosphate synthase</t>
+  </si>
+  <si>
+    <t>β-Myrcene synthase(MYS)</t>
+  </si>
+  <si>
+    <t>β-Ocimene synthase(OCS)</t>
+  </si>
+  <si>
+    <t>TPS13-1</t>
+  </si>
+  <si>
+    <t>TPS13-2</t>
+  </si>
+  <si>
+    <t>3-HYDROXY-3- GLUTARYL COENZYME A SYNTHASE(HMGS)</t>
+  </si>
+  <si>
+    <t>PMC7120792</t>
+  </si>
+  <si>
+    <t>strictosidine synthase</t>
+  </si>
+  <si>
+    <t>3-deoxy-D4 arabino-heptulosonate-7-phosphate synthase</t>
+  </si>
+  <si>
+    <t>PMC7132054</t>
+  </si>
+  <si>
+    <t>phytoene synthase (PSY)</t>
+  </si>
+  <si>
+    <t>PMC7272924</t>
+  </si>
+  <si>
+    <t>caffeine synthase</t>
+  </si>
+  <si>
+    <t>PMC7352595</t>
+  </si>
+  <si>
+    <t>Taxadiene Synthase</t>
+  </si>
+  <si>
+    <t>3-oxoacyl-[acyl-carrier-protein] synthase</t>
+  </si>
+  <si>
+    <t>fatty acid synthase</t>
+  </si>
+  <si>
+    <t>3-deoxy-7-phosphoheptulonate synthase</t>
+  </si>
+  <si>
+    <t>g1,3-beta-D-glucan synthase activitylucan</t>
+  </si>
+  <si>
+    <t>porphobilinogen synthase</t>
+  </si>
+  <si>
+    <t>4-hydroxy-3-methylbut-2-en-1-yl diphosphate synthase</t>
+  </si>
+  <si>
+    <t>lipid-A-disaccharide synthase</t>
+  </si>
+  <si>
+    <t>inositol-3-phosphate synthase</t>
+  </si>
+  <si>
+    <t>chorismate synthase</t>
+  </si>
+  <si>
+    <t>asparagine synthase</t>
+  </si>
+  <si>
+    <t>chitin synthase</t>
+  </si>
+  <si>
+    <t>pseudouridine synthase</t>
+  </si>
+  <si>
+    <t>chorismate synthas</t>
+  </si>
+  <si>
+    <t>2-C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
+  </si>
+  <si>
+    <t>3,4-dihydroxy-2-butanone-4-phosphate synthase</t>
+  </si>
+  <si>
+    <t>glutathione synthase</t>
+  </si>
+  <si>
+    <t>uroporphyrinogen-III synthase</t>
+  </si>
+  <si>
+    <t>preQ1 synthase</t>
+  </si>
+  <si>
+    <t>nicotianamine synthas</t>
+  </si>
+  <si>
+    <t>triphosphoribosyl-dephospho-CoA synthase</t>
+  </si>
+  <si>
+    <t>riboflavin synthase</t>
+  </si>
+  <si>
+    <t>adenylosuccinate synthase</t>
+  </si>
+  <si>
+    <t>hydroxymethylglutaryl-CoA synthase</t>
+  </si>
+  <si>
+    <t>CTP synthase</t>
+  </si>
+  <si>
+    <t>TPSD4_ABIGR</t>
+  </si>
+  <si>
+    <t>TPSD2_ABIGR</t>
+  </si>
+  <si>
+    <t>TPSD8_ABIGR</t>
+  </si>
+  <si>
+    <t>TPSD1_ABIGR</t>
+  </si>
+  <si>
+    <t>TPSD1_GINBI</t>
+  </si>
+  <si>
+    <t>TPSD2_PICAB</t>
+  </si>
+  <si>
+    <t>TPS10_SELML</t>
+  </si>
+  <si>
+    <t>TPSD1_PICAB</t>
+  </si>
+  <si>
+    <t>TPS9_SELML</t>
+  </si>
+  <si>
+    <t>TPSD9_ABIGR</t>
+  </si>
+  <si>
+    <t>TPSD2_PINCO</t>
+  </si>
+  <si>
+    <t>TPSD6_ABIGR</t>
+  </si>
+  <si>
+    <t>(S)-stylopine synthase(STS)</t>
+  </si>
+  <si>
+    <t>Allene oxide synthase</t>
+  </si>
+  <si>
+    <t>fumitremorgin C synthase</t>
+  </si>
+  <si>
+    <t>(S)-canadine synthase</t>
+  </si>
+  <si>
+    <t>Linoleate diol synthase</t>
+  </si>
+  <si>
+    <t>Heptaprenyl diphosphate synthase (HEPPP synthase)</t>
+  </si>
+  <si>
+    <t>6,7-dimethyl-8-ribityllumazine synthase}</t>
+  </si>
+  <si>
+    <t>PMC7419205</t>
+  </si>
+  <si>
+    <t>CpTPS</t>
+  </si>
+  <si>
+    <t>CpTPS4</t>
+  </si>
+  <si>
+    <t>CpTPS9</t>
+  </si>
+  <si>
+    <t>CpTPS42</t>
+  </si>
+  <si>
+    <t>CpTPS17</t>
+  </si>
+  <si>
+    <t>CpTPS18</t>
+  </si>
+  <si>
+    <t>CpTPS19</t>
+  </si>
+  <si>
+    <t>PMC7432446</t>
+  </si>
+  <si>
+    <t>DoTPS</t>
+  </si>
+  <si>
+    <t>DoTPS10</t>
+  </si>
+  <si>
+    <t>TPS-h</t>
+  </si>
+  <si>
+    <t>PbTPS5</t>
+  </si>
+  <si>
+    <t>PbTPS10</t>
+  </si>
+  <si>
+    <t>FhTPS4</t>
+  </si>
+  <si>
+    <t>FhTPS6</t>
+  </si>
+  <si>
+    <t>FhTPS7</t>
+  </si>
+  <si>
+    <t>DoTPS4</t>
+  </si>
+  <si>
+    <t>DoTPS12</t>
+  </si>
+  <si>
+    <t>DoTPS19</t>
+  </si>
+  <si>
+    <t>DoTPS20</t>
+  </si>
+  <si>
+    <t>DoTPS31</t>
+  </si>
+  <si>
+    <t>DoTPS1</t>
+  </si>
+  <si>
+    <t>DoTPS2</t>
+  </si>
+  <si>
+    <t>DoTPS3</t>
+  </si>
+  <si>
+    <t>DoTPS5</t>
+  </si>
+  <si>
+    <t>DoTPS7</t>
+  </si>
+  <si>
+    <t>DoTPS8</t>
+  </si>
+  <si>
+    <t>DoTPS9</t>
+  </si>
+  <si>
+    <t>DoTPS11</t>
+  </si>
+  <si>
+    <t>DoTPS13</t>
+  </si>
+  <si>
+    <t>DoTPS14</t>
+  </si>
+  <si>
+    <t>DoTPS15</t>
+  </si>
+  <si>
+    <t>DoTPS16</t>
+  </si>
+  <si>
+    <t>DoTPS17</t>
+  </si>
+  <si>
+    <t>DoTPS18</t>
+  </si>
+  <si>
+    <t>DoTPS21</t>
+  </si>
+  <si>
+    <t>DoTPS22</t>
+  </si>
+  <si>
+    <t>DoTPS23</t>
+  </si>
+  <si>
+    <t>DoTPS24</t>
+  </si>
+  <si>
+    <t>DoTPS25</t>
+  </si>
+  <si>
+    <t>DoTPS26</t>
+  </si>
+  <si>
+    <t>DoTPS27</t>
+  </si>
+  <si>
+    <t>DoTPS28</t>
+  </si>
+  <si>
+    <t>DoTPS29</t>
+  </si>
+  <si>
+    <t>DoTPS30</t>
+  </si>
+  <si>
+    <t>DoTPS32</t>
+  </si>
+  <si>
+    <t>DoTPS33</t>
+  </si>
+  <si>
+    <t>DoTPS34</t>
+  </si>
+  <si>
+    <t>TPS-a1</t>
+  </si>
+  <si>
+    <t>TPS-a2</t>
+  </si>
+  <si>
+    <t>AtTPS22</t>
+  </si>
+  <si>
+    <t>AtTPS29</t>
+  </si>
+  <si>
+    <t>AtTPS23</t>
+  </si>
+  <si>
+    <t>AtTPS28</t>
+  </si>
+  <si>
+    <t>AtTPS4</t>
+  </si>
+  <si>
+    <t>AtTPS14</t>
+  </si>
+  <si>
+    <t>AtTPS6</t>
+  </si>
+  <si>
+    <t>AtTPS32</t>
+  </si>
+  <si>
+    <t>AtTPS5</t>
+  </si>
+  <si>
+    <t>AtTPS10</t>
+  </si>
+  <si>
+    <t>AtTPS17</t>
+  </si>
+  <si>
+    <t>AtTPS19</t>
+  </si>
+  <si>
+    <t>AtTPS27</t>
+  </si>
+  <si>
+    <t>AtTPS15</t>
+  </si>
+  <si>
+    <t>AtTPS12</t>
+  </si>
+  <si>
+    <t>AtTPS31</t>
+  </si>
+  <si>
+    <t>AtTPS30</t>
+  </si>
+  <si>
+    <t>AtTPS25</t>
+  </si>
+  <si>
+    <t>AtTPS16</t>
+  </si>
+  <si>
+    <t>AtTPS13</t>
+  </si>
+  <si>
+    <t>AtTPS1</t>
+  </si>
+  <si>
+    <t>AtTPS2</t>
+  </si>
+  <si>
+    <t>AtTPS7</t>
+  </si>
+  <si>
+    <t>AtTPS8</t>
+  </si>
+  <si>
+    <t>AtTPS9</t>
+  </si>
+  <si>
+    <t>AtTPS21</t>
+  </si>
+  <si>
+    <t>AtTPS11</t>
+  </si>
+  <si>
+    <t>AtTPS20</t>
+  </si>
+  <si>
+    <t>SlTPS10</t>
+  </si>
+  <si>
+    <t>SlTPS12</t>
+  </si>
+  <si>
+    <t>SlTPS14</t>
+  </si>
+  <si>
+    <t>SlTPS18</t>
+  </si>
+  <si>
+    <t>SlTPS19</t>
+  </si>
+  <si>
+    <t>SlTPS20</t>
+  </si>
+  <si>
+    <t>SlTPS21</t>
+  </si>
+  <si>
+    <t>SITPS24</t>
+  </si>
+  <si>
+    <t>SITPS25</t>
+  </si>
+  <si>
+    <t>SITPS27</t>
+  </si>
+  <si>
+    <t>SITPS28</t>
+  </si>
+  <si>
+    <t>SITPS3</t>
+  </si>
+  <si>
+    <t>SITPS31</t>
+  </si>
+  <si>
+    <t>SlTPS32</t>
+  </si>
+  <si>
+    <t>SlTPS33</t>
+  </si>
+  <si>
+    <t>SlTPS35</t>
+  </si>
+  <si>
+    <t>SlTPS36</t>
+  </si>
+  <si>
+    <t>SlTPS37</t>
+  </si>
+  <si>
+    <t>SlTPS38</t>
+  </si>
+  <si>
+    <t>SlTPS39</t>
+  </si>
+  <si>
+    <t>SlTPS4</t>
+  </si>
+  <si>
+    <t>SlTPS40</t>
+  </si>
+  <si>
+    <t>SlTPS41</t>
+  </si>
+  <si>
+    <t>SlTPS5</t>
+  </si>
+  <si>
+    <t>SlTPS7</t>
+  </si>
+  <si>
+    <t>SlTPS8</t>
+  </si>
+  <si>
+    <t>SlTPS9</t>
+  </si>
+  <si>
+    <t>PMC7582308</t>
+  </si>
+  <si>
+    <t>geraniol synthase (GES)</t>
+  </si>
+  <si>
+    <t>4-hydroxy-3-methylbut-2-en-1-yl diphosphate synthase (HDS)</t>
+  </si>
+  <si>
+    <t>LoTPS3</t>
+  </si>
+  <si>
+    <t>HcTPS7</t>
+  </si>
+  <si>
+    <t>LiTPS2</t>
+  </si>
+  <si>
+    <t>R-linalool synthase</t>
+  </si>
+  <si>
+    <t>bergamotene synthase</t>
+  </si>
+  <si>
+    <t>Santalene synthase</t>
+  </si>
+  <si>
+    <t>PMC8087695</t>
+  </si>
+  <si>
+    <t>SCZTPS</t>
+  </si>
+  <si>
+    <t>HDTPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1325,18 +3361,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1656,26 +3989,36 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="B622" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" customWidth="1"/>
-    <col min="10" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="8" width="5.16666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="13" width="5.16666666666667" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
+    <col min="15" max="15" width="2.75" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="17" width="4.25" customWidth="1"/>
+    <col min="26" max="26" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4940,12 +7283,6180 @@
         <v>383</v>
       </c>
     </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B75" t="s">
+        <v>425</v>
+      </c>
+      <c r="I75" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>425</v>
+      </c>
+      <c r="B76" t="s">
+        <v>425</v>
+      </c>
+      <c r="I76" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" t="s">
+        <v>425</v>
+      </c>
+      <c r="I77" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>425</v>
+      </c>
+      <c r="B78" t="s">
+        <v>425</v>
+      </c>
+      <c r="I78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79" t="s">
+        <v>425</v>
+      </c>
+      <c r="I79" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>425</v>
+      </c>
+      <c r="B80" t="s">
+        <v>425</v>
+      </c>
+      <c r="I80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>425</v>
+      </c>
+      <c r="B81" t="s">
+        <v>425</v>
+      </c>
+      <c r="I81" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" t="s">
+        <v>425</v>
+      </c>
+      <c r="I82" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>434</v>
+      </c>
+      <c r="B83" t="s">
+        <v>434</v>
+      </c>
+      <c r="I83" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>434</v>
+      </c>
+      <c r="B84" t="s">
+        <v>434</v>
+      </c>
+      <c r="I84" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>434</v>
+      </c>
+      <c r="B85" t="s">
+        <v>434</v>
+      </c>
+      <c r="I85" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86" t="s">
+        <v>434</v>
+      </c>
+      <c r="I86" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" ht="31.5" spans="1:9">
+      <c r="A87" t="s">
+        <v>434</v>
+      </c>
+      <c r="B87" t="s">
+        <v>434</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>434</v>
+      </c>
+      <c r="B88" t="s">
+        <v>434</v>
+      </c>
+      <c r="I88" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>434</v>
+      </c>
+      <c r="B89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I89" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>434</v>
+      </c>
+      <c r="B90" t="s">
+        <v>434</v>
+      </c>
+      <c r="I90" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>434</v>
+      </c>
+      <c r="B91" t="s">
+        <v>434</v>
+      </c>
+      <c r="I91" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>434</v>
+      </c>
+      <c r="B92" t="s">
+        <v>434</v>
+      </c>
+      <c r="I92" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>434</v>
+      </c>
+      <c r="B93" t="s">
+        <v>434</v>
+      </c>
+      <c r="I93" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>434</v>
+      </c>
+      <c r="B94" t="s">
+        <v>434</v>
+      </c>
+      <c r="I94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B95" t="s">
+        <v>434</v>
+      </c>
+      <c r="I95" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>434</v>
+      </c>
+      <c r="B96" t="s">
+        <v>434</v>
+      </c>
+      <c r="I96" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>434</v>
+      </c>
+      <c r="B97" t="s">
+        <v>434</v>
+      </c>
+      <c r="I97" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>425</v>
+      </c>
+      <c r="B98" t="s">
+        <v>425</v>
+      </c>
+      <c r="I98" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>425</v>
+      </c>
+      <c r="B99" t="s">
+        <v>425</v>
+      </c>
+      <c r="I99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" t="s">
+        <v>425</v>
+      </c>
+      <c r="I100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>425</v>
+      </c>
+      <c r="B101" t="s">
+        <v>425</v>
+      </c>
+      <c r="I101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102" t="s">
+        <v>425</v>
+      </c>
+      <c r="I102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" t="s">
+        <v>425</v>
+      </c>
+      <c r="I103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>425</v>
+      </c>
+      <c r="B104" t="s">
+        <v>425</v>
+      </c>
+      <c r="I104" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" t="s">
+        <v>425</v>
+      </c>
+      <c r="I105" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>457</v>
+      </c>
+      <c r="B106" t="s">
+        <v>457</v>
+      </c>
+      <c r="I106" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>457</v>
+      </c>
+      <c r="B107" t="s">
+        <v>457</v>
+      </c>
+      <c r="I107" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>457</v>
+      </c>
+      <c r="B108" t="s">
+        <v>457</v>
+      </c>
+      <c r="I108" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>457</v>
+      </c>
+      <c r="B109" t="s">
+        <v>457</v>
+      </c>
+      <c r="I109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>457</v>
+      </c>
+      <c r="B110" t="s">
+        <v>457</v>
+      </c>
+      <c r="I110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>457</v>
+      </c>
+      <c r="B111" t="s">
+        <v>457</v>
+      </c>
+      <c r="I111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>457</v>
+      </c>
+      <c r="B112" t="s">
+        <v>457</v>
+      </c>
+      <c r="I112" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" t="s">
+        <v>457</v>
+      </c>
+      <c r="I113" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>466</v>
+      </c>
+      <c r="B114" t="s">
+        <v>466</v>
+      </c>
+      <c r="I114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>466</v>
+      </c>
+      <c r="B115" t="s">
+        <v>466</v>
+      </c>
+      <c r="I115" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" t="s">
+        <v>466</v>
+      </c>
+      <c r="I116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>466</v>
+      </c>
+      <c r="B117" t="s">
+        <v>466</v>
+      </c>
+      <c r="I117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="I118" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>471</v>
+      </c>
+      <c r="B119" t="s">
+        <v>471</v>
+      </c>
+      <c r="I119" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" t="s">
+        <v>471</v>
+      </c>
+      <c r="I120" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B121" t="s">
+        <v>471</v>
+      </c>
+      <c r="I121" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>471</v>
+      </c>
+      <c r="B122" t="s">
+        <v>471</v>
+      </c>
+      <c r="I122" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>471</v>
+      </c>
+      <c r="B123" t="s">
+        <v>471</v>
+      </c>
+      <c r="I123" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>471</v>
+      </c>
+      <c r="B124" t="s">
+        <v>471</v>
+      </c>
+      <c r="I124" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>471</v>
+      </c>
+      <c r="B125" t="s">
+        <v>471</v>
+      </c>
+      <c r="I125" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" t="s">
+        <v>471</v>
+      </c>
+      <c r="I126" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>471</v>
+      </c>
+      <c r="B127" t="s">
+        <v>471</v>
+      </c>
+      <c r="I127" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>471</v>
+      </c>
+      <c r="B128" t="s">
+        <v>471</v>
+      </c>
+      <c r="I128" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>482</v>
+      </c>
+      <c r="B129" t="s">
+        <v>482</v>
+      </c>
+      <c r="I129" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>482</v>
+      </c>
+      <c r="B130" t="s">
+        <v>482</v>
+      </c>
+      <c r="I130" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>482</v>
+      </c>
+      <c r="B131" t="s">
+        <v>482</v>
+      </c>
+      <c r="I131" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>486</v>
+      </c>
+      <c r="B132" t="s">
+        <v>486</v>
+      </c>
+      <c r="I132" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>486</v>
+      </c>
+      <c r="B133" t="s">
+        <v>486</v>
+      </c>
+      <c r="I133" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>489</v>
+      </c>
+      <c r="B134" t="s">
+        <v>489</v>
+      </c>
+      <c r="I134" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>489</v>
+      </c>
+      <c r="B135" t="s">
+        <v>489</v>
+      </c>
+      <c r="I135" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>489</v>
+      </c>
+      <c r="B136" t="s">
+        <v>489</v>
+      </c>
+      <c r="I136" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>489</v>
+      </c>
+      <c r="B137" t="s">
+        <v>489</v>
+      </c>
+      <c r="I137" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>489</v>
+      </c>
+      <c r="B138" t="s">
+        <v>489</v>
+      </c>
+      <c r="I138" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>489</v>
+      </c>
+      <c r="B139" t="s">
+        <v>489</v>
+      </c>
+      <c r="I139" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>489</v>
+      </c>
+      <c r="B140" t="s">
+        <v>489</v>
+      </c>
+      <c r="I140" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>489</v>
+      </c>
+      <c r="B141" t="s">
+        <v>489</v>
+      </c>
+      <c r="I141" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>489</v>
+      </c>
+      <c r="B142" t="s">
+        <v>489</v>
+      </c>
+      <c r="I142" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>489</v>
+      </c>
+      <c r="B143" t="s">
+        <v>489</v>
+      </c>
+      <c r="I143" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>489</v>
+      </c>
+      <c r="B144" t="s">
+        <v>489</v>
+      </c>
+      <c r="I144" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>489</v>
+      </c>
+      <c r="B145" t="s">
+        <v>489</v>
+      </c>
+      <c r="I145" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>489</v>
+      </c>
+      <c r="B146" t="s">
+        <v>489</v>
+      </c>
+      <c r="I146" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" t="s">
+        <v>489</v>
+      </c>
+      <c r="I147" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" t="s">
+        <v>489</v>
+      </c>
+      <c r="I148" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>489</v>
+      </c>
+      <c r="B149" t="s">
+        <v>489</v>
+      </c>
+      <c r="I149" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>489</v>
+      </c>
+      <c r="B150" t="s">
+        <v>489</v>
+      </c>
+      <c r="I150" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" ht="21" customHeight="1" spans="1:9">
+      <c r="A151" t="s">
+        <v>489</v>
+      </c>
+      <c r="B151" t="s">
+        <v>489</v>
+      </c>
+      <c r="I151" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="152" ht="21" customHeight="1" spans="1:9">
+      <c r="A152" t="s">
+        <v>489</v>
+      </c>
+      <c r="B152" t="s">
+        <v>489</v>
+      </c>
+      <c r="I152" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="153" ht="21" customHeight="1" spans="1:9">
+      <c r="A153" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" t="s">
+        <v>489</v>
+      </c>
+      <c r="I153" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="154" ht="21" customHeight="1" spans="1:9">
+      <c r="A154" t="s">
+        <v>489</v>
+      </c>
+      <c r="B154" t="s">
+        <v>489</v>
+      </c>
+      <c r="I154" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="155" ht="21" customHeight="1" spans="1:9">
+      <c r="A155" t="s">
+        <v>489</v>
+      </c>
+      <c r="B155" t="s">
+        <v>489</v>
+      </c>
+      <c r="I155" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="156" ht="21" customHeight="1" spans="1:9">
+      <c r="A156" t="s">
+        <v>489</v>
+      </c>
+      <c r="B156" t="s">
+        <v>489</v>
+      </c>
+      <c r="I156" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="157" ht="21" customHeight="1" spans="1:9">
+      <c r="A157" t="s">
+        <v>489</v>
+      </c>
+      <c r="B157" t="s">
+        <v>489</v>
+      </c>
+      <c r="I157" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" ht="21" customHeight="1" spans="1:9">
+      <c r="A158" t="s">
+        <v>489</v>
+      </c>
+      <c r="B158" t="s">
+        <v>489</v>
+      </c>
+      <c r="I158" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>489</v>
+      </c>
+      <c r="B159" t="s">
+        <v>489</v>
+      </c>
+      <c r="I159" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>489</v>
+      </c>
+      <c r="B160" t="s">
+        <v>489</v>
+      </c>
+      <c r="I160" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>489</v>
+      </c>
+      <c r="B161" t="s">
+        <v>489</v>
+      </c>
+      <c r="I161" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>489</v>
+      </c>
+      <c r="B162" t="s">
+        <v>489</v>
+      </c>
+      <c r="I162" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>489</v>
+      </c>
+      <c r="B163" t="s">
+        <v>489</v>
+      </c>
+      <c r="I163" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>489</v>
+      </c>
+      <c r="B164" t="s">
+        <v>489</v>
+      </c>
+      <c r="I164" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>489</v>
+      </c>
+      <c r="B165" t="s">
+        <v>489</v>
+      </c>
+      <c r="I165" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>489</v>
+      </c>
+      <c r="B166" t="s">
+        <v>489</v>
+      </c>
+      <c r="I166" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>489</v>
+      </c>
+      <c r="B167" t="s">
+        <v>489</v>
+      </c>
+      <c r="I167" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>489</v>
+      </c>
+      <c r="B168" t="s">
+        <v>489</v>
+      </c>
+      <c r="I168" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>489</v>
+      </c>
+      <c r="B169" t="s">
+        <v>489</v>
+      </c>
+      <c r="I169" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>489</v>
+      </c>
+      <c r="B170" t="s">
+        <v>489</v>
+      </c>
+      <c r="I170" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>489</v>
+      </c>
+      <c r="B171" t="s">
+        <v>489</v>
+      </c>
+      <c r="I171" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>489</v>
+      </c>
+      <c r="B172" t="s">
+        <v>489</v>
+      </c>
+      <c r="I172" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>489</v>
+      </c>
+      <c r="B173" t="s">
+        <v>489</v>
+      </c>
+      <c r="I173" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>489</v>
+      </c>
+      <c r="B174" t="s">
+        <v>489</v>
+      </c>
+      <c r="I174" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>489</v>
+      </c>
+      <c r="B175" t="s">
+        <v>489</v>
+      </c>
+      <c r="I175" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>489</v>
+      </c>
+      <c r="B176" t="s">
+        <v>489</v>
+      </c>
+      <c r="I176" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>489</v>
+      </c>
+      <c r="B177" t="s">
+        <v>489</v>
+      </c>
+      <c r="I177" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>489</v>
+      </c>
+      <c r="B178" t="s">
+        <v>489</v>
+      </c>
+      <c r="I178" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>489</v>
+      </c>
+      <c r="B179" t="s">
+        <v>489</v>
+      </c>
+      <c r="I179" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>489</v>
+      </c>
+      <c r="B180" t="s">
+        <v>489</v>
+      </c>
+      <c r="I180" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>489</v>
+      </c>
+      <c r="B181" t="s">
+        <v>489</v>
+      </c>
+      <c r="I181" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>489</v>
+      </c>
+      <c r="B182" t="s">
+        <v>489</v>
+      </c>
+      <c r="I182" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>489</v>
+      </c>
+      <c r="B183" t="s">
+        <v>489</v>
+      </c>
+      <c r="I183" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>489</v>
+      </c>
+      <c r="B184" t="s">
+        <v>489</v>
+      </c>
+      <c r="I184" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>489</v>
+      </c>
+      <c r="B185" t="s">
+        <v>489</v>
+      </c>
+      <c r="I185" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>489</v>
+      </c>
+      <c r="B186" t="s">
+        <v>489</v>
+      </c>
+      <c r="I186" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>489</v>
+      </c>
+      <c r="B187" t="s">
+        <v>489</v>
+      </c>
+      <c r="I187" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" t="s">
+        <v>489</v>
+      </c>
+      <c r="I188" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>489</v>
+      </c>
+      <c r="B189" t="s">
+        <v>489</v>
+      </c>
+      <c r="I189" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>540</v>
+      </c>
+      <c r="B190" t="s">
+        <v>540</v>
+      </c>
+      <c r="I190" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>540</v>
+      </c>
+      <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="I191" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>540</v>
+      </c>
+      <c r="B192" t="s">
+        <v>540</v>
+      </c>
+      <c r="I192" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>540</v>
+      </c>
+      <c r="B193" t="s">
+        <v>540</v>
+      </c>
+      <c r="I193" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>540</v>
+      </c>
+      <c r="B194" t="s">
+        <v>540</v>
+      </c>
+      <c r="I194" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>546</v>
+      </c>
+      <c r="B195" t="s">
+        <v>546</v>
+      </c>
+      <c r="I195" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>546</v>
+      </c>
+      <c r="B196" t="s">
+        <v>546</v>
+      </c>
+      <c r="I196" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>549</v>
+      </c>
+      <c r="B197" t="s">
+        <v>549</v>
+      </c>
+      <c r="I197" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>549</v>
+      </c>
+      <c r="B198" t="s">
+        <v>549</v>
+      </c>
+      <c r="I198" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>549</v>
+      </c>
+      <c r="B199" t="s">
+        <v>549</v>
+      </c>
+      <c r="I199" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>553</v>
+      </c>
+      <c r="B200" t="s">
+        <v>553</v>
+      </c>
+      <c r="I200" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>553</v>
+      </c>
+      <c r="B201" t="s">
+        <v>553</v>
+      </c>
+      <c r="I201" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>553</v>
+      </c>
+      <c r="B202" t="s">
+        <v>553</v>
+      </c>
+      <c r="I202" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>553</v>
+      </c>
+      <c r="B203" t="s">
+        <v>553</v>
+      </c>
+      <c r="I203" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>553</v>
+      </c>
+      <c r="B204" t="s">
+        <v>553</v>
+      </c>
+      <c r="I204" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>553</v>
+      </c>
+      <c r="B205" t="s">
+        <v>553</v>
+      </c>
+      <c r="I205" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>553</v>
+      </c>
+      <c r="B206" t="s">
+        <v>553</v>
+      </c>
+      <c r="I206" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>553</v>
+      </c>
+      <c r="B207" t="s">
+        <v>553</v>
+      </c>
+      <c r="I207" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>553</v>
+      </c>
+      <c r="B208" t="s">
+        <v>553</v>
+      </c>
+      <c r="I208" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>553</v>
+      </c>
+      <c r="B209" t="s">
+        <v>553</v>
+      </c>
+      <c r="I209" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>553</v>
+      </c>
+      <c r="B210" t="s">
+        <v>553</v>
+      </c>
+      <c r="I210" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>553</v>
+      </c>
+      <c r="B211" t="s">
+        <v>553</v>
+      </c>
+      <c r="I211" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>553</v>
+      </c>
+      <c r="B212" t="s">
+        <v>553</v>
+      </c>
+      <c r="I212" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>553</v>
+      </c>
+      <c r="B213" t="s">
+        <v>553</v>
+      </c>
+      <c r="I213" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>553</v>
+      </c>
+      <c r="B214" t="s">
+        <v>553</v>
+      </c>
+      <c r="I214" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>553</v>
+      </c>
+      <c r="B215" t="s">
+        <v>553</v>
+      </c>
+      <c r="I215" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>553</v>
+      </c>
+      <c r="B216" t="s">
+        <v>553</v>
+      </c>
+      <c r="I216" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>553</v>
+      </c>
+      <c r="B217" t="s">
+        <v>553</v>
+      </c>
+      <c r="I217" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>553</v>
+      </c>
+      <c r="B218" t="s">
+        <v>553</v>
+      </c>
+      <c r="I218" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>553</v>
+      </c>
+      <c r="B219" t="s">
+        <v>553</v>
+      </c>
+      <c r="I219" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>553</v>
+      </c>
+      <c r="B220" t="s">
+        <v>553</v>
+      </c>
+      <c r="I220" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>553</v>
+      </c>
+      <c r="B221" t="s">
+        <v>553</v>
+      </c>
+      <c r="I221" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>553</v>
+      </c>
+      <c r="B222" t="s">
+        <v>553</v>
+      </c>
+      <c r="I222" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>553</v>
+      </c>
+      <c r="B223" t="s">
+        <v>553</v>
+      </c>
+      <c r="I223" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>553</v>
+      </c>
+      <c r="B224" t="s">
+        <v>553</v>
+      </c>
+      <c r="I224" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>553</v>
+      </c>
+      <c r="B225" t="s">
+        <v>553</v>
+      </c>
+      <c r="I225" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>553</v>
+      </c>
+      <c r="B226" t="s">
+        <v>553</v>
+      </c>
+      <c r="I226" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>553</v>
+      </c>
+      <c r="B227" t="s">
+        <v>553</v>
+      </c>
+      <c r="I227" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>553</v>
+      </c>
+      <c r="B228" t="s">
+        <v>553</v>
+      </c>
+      <c r="I228" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>553</v>
+      </c>
+      <c r="B229" t="s">
+        <v>553</v>
+      </c>
+      <c r="I229" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>553</v>
+      </c>
+      <c r="B230" t="s">
+        <v>553</v>
+      </c>
+      <c r="I230" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>553</v>
+      </c>
+      <c r="B231" t="s">
+        <v>553</v>
+      </c>
+      <c r="I231" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>553</v>
+      </c>
+      <c r="B232" t="s">
+        <v>553</v>
+      </c>
+      <c r="I232" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>553</v>
+      </c>
+      <c r="B233" t="s">
+        <v>553</v>
+      </c>
+      <c r="I233" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>553</v>
+      </c>
+      <c r="B234" t="s">
+        <v>553</v>
+      </c>
+      <c r="I234" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>553</v>
+      </c>
+      <c r="B235" t="s">
+        <v>553</v>
+      </c>
+      <c r="I235" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>553</v>
+      </c>
+      <c r="B236" t="s">
+        <v>553</v>
+      </c>
+      <c r="I236" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>553</v>
+      </c>
+      <c r="B237" t="s">
+        <v>553</v>
+      </c>
+      <c r="I237" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>553</v>
+      </c>
+      <c r="B238" t="s">
+        <v>553</v>
+      </c>
+      <c r="I238" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>553</v>
+      </c>
+      <c r="B239" t="s">
+        <v>553</v>
+      </c>
+      <c r="I239" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>553</v>
+      </c>
+      <c r="B240" t="s">
+        <v>553</v>
+      </c>
+      <c r="I240" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>553</v>
+      </c>
+      <c r="B241" t="s">
+        <v>553</v>
+      </c>
+      <c r="I241" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>553</v>
+      </c>
+      <c r="B242" t="s">
+        <v>553</v>
+      </c>
+      <c r="I242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>553</v>
+      </c>
+      <c r="B243" t="s">
+        <v>553</v>
+      </c>
+      <c r="I243" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>553</v>
+      </c>
+      <c r="B244" t="s">
+        <v>553</v>
+      </c>
+      <c r="I244" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>553</v>
+      </c>
+      <c r="B245" t="s">
+        <v>553</v>
+      </c>
+      <c r="I245" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>553</v>
+      </c>
+      <c r="B246" t="s">
+        <v>553</v>
+      </c>
+      <c r="I246" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>553</v>
+      </c>
+      <c r="B247" t="s">
+        <v>553</v>
+      </c>
+      <c r="I247" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>553</v>
+      </c>
+      <c r="B248" t="s">
+        <v>553</v>
+      </c>
+      <c r="I248" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>553</v>
+      </c>
+      <c r="B249" t="s">
+        <v>553</v>
+      </c>
+      <c r="I249" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>553</v>
+      </c>
+      <c r="B250" t="s">
+        <v>553</v>
+      </c>
+      <c r="I250" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>553</v>
+      </c>
+      <c r="B251" t="s">
+        <v>553</v>
+      </c>
+      <c r="I251" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>553</v>
+      </c>
+      <c r="B252" t="s">
+        <v>553</v>
+      </c>
+      <c r="I252" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>553</v>
+      </c>
+      <c r="B253" t="s">
+        <v>553</v>
+      </c>
+      <c r="I253" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>553</v>
+      </c>
+      <c r="B254" t="s">
+        <v>553</v>
+      </c>
+      <c r="I254" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>553</v>
+      </c>
+      <c r="B255" t="s">
+        <v>553</v>
+      </c>
+      <c r="I255" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>553</v>
+      </c>
+      <c r="B256" t="s">
+        <v>553</v>
+      </c>
+      <c r="I256" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>610</v>
+      </c>
+      <c r="B257" t="s">
+        <v>610</v>
+      </c>
+      <c r="I257" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>612</v>
+      </c>
+      <c r="B258" t="s">
+        <v>612</v>
+      </c>
+      <c r="I258" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>612</v>
+      </c>
+      <c r="B259" t="s">
+        <v>612</v>
+      </c>
+      <c r="I259" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>612</v>
+      </c>
+      <c r="B260" t="s">
+        <v>612</v>
+      </c>
+      <c r="I260" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>612</v>
+      </c>
+      <c r="B261" t="s">
+        <v>612</v>
+      </c>
+      <c r="I261" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>612</v>
+      </c>
+      <c r="B262" t="s">
+        <v>612</v>
+      </c>
+      <c r="I262" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>612</v>
+      </c>
+      <c r="B263" t="s">
+        <v>612</v>
+      </c>
+      <c r="I263" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>612</v>
+      </c>
+      <c r="B264" t="s">
+        <v>612</v>
+      </c>
+      <c r="I264" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>612</v>
+      </c>
+      <c r="B265" t="s">
+        <v>612</v>
+      </c>
+      <c r="I265" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>612</v>
+      </c>
+      <c r="B266" t="s">
+        <v>612</v>
+      </c>
+      <c r="I266" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>612</v>
+      </c>
+      <c r="B267" t="s">
+        <v>612</v>
+      </c>
+      <c r="I267" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>612</v>
+      </c>
+      <c r="B268" t="s">
+        <v>612</v>
+      </c>
+      <c r="I268" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>612</v>
+      </c>
+      <c r="B269" t="s">
+        <v>612</v>
+      </c>
+      <c r="I269" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>612</v>
+      </c>
+      <c r="B270" t="s">
+        <v>612</v>
+      </c>
+      <c r="I270" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>612</v>
+      </c>
+      <c r="B271" t="s">
+        <v>612</v>
+      </c>
+      <c r="I271" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>612</v>
+      </c>
+      <c r="B272" t="s">
+        <v>612</v>
+      </c>
+      <c r="I272" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>612</v>
+      </c>
+      <c r="B273" t="s">
+        <v>612</v>
+      </c>
+      <c r="I273" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="274" ht="17" customHeight="1" spans="1:9">
+      <c r="A274" t="s">
+        <v>612</v>
+      </c>
+      <c r="B274" t="s">
+        <v>612</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>612</v>
+      </c>
+      <c r="B275" t="s">
+        <v>612</v>
+      </c>
+      <c r="I275" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>612</v>
+      </c>
+      <c r="B276" t="s">
+        <v>612</v>
+      </c>
+      <c r="I276" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>612</v>
+      </c>
+      <c r="B277" t="s">
+        <v>612</v>
+      </c>
+      <c r="I277" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>612</v>
+      </c>
+      <c r="B278" t="s">
+        <v>612</v>
+      </c>
+      <c r="I278" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>612</v>
+      </c>
+      <c r="B279" t="s">
+        <v>612</v>
+      </c>
+      <c r="I279" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>612</v>
+      </c>
+      <c r="B280" t="s">
+        <v>612</v>
+      </c>
+      <c r="I280" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>612</v>
+      </c>
+      <c r="B281" t="s">
+        <v>612</v>
+      </c>
+      <c r="I281" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>612</v>
+      </c>
+      <c r="B282" t="s">
+        <v>612</v>
+      </c>
+      <c r="I282" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>612</v>
+      </c>
+      <c r="B283" t="s">
+        <v>612</v>
+      </c>
+      <c r="I283" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>612</v>
+      </c>
+      <c r="B284" t="s">
+        <v>612</v>
+      </c>
+      <c r="I284" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>612</v>
+      </c>
+      <c r="B285" t="s">
+        <v>612</v>
+      </c>
+      <c r="I285" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>612</v>
+      </c>
+      <c r="B286" t="s">
+        <v>612</v>
+      </c>
+      <c r="I286" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>612</v>
+      </c>
+      <c r="B287" t="s">
+        <v>612</v>
+      </c>
+      <c r="I287" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>612</v>
+      </c>
+      <c r="B288" t="s">
+        <v>612</v>
+      </c>
+      <c r="I288" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>612</v>
+      </c>
+      <c r="B289" t="s">
+        <v>612</v>
+      </c>
+      <c r="I289" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>612</v>
+      </c>
+      <c r="B290" t="s">
+        <v>612</v>
+      </c>
+      <c r="I290" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>612</v>
+      </c>
+      <c r="B291" t="s">
+        <v>612</v>
+      </c>
+      <c r="I291" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>612</v>
+      </c>
+      <c r="B292" t="s">
+        <v>612</v>
+      </c>
+      <c r="I292" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>612</v>
+      </c>
+      <c r="B293" t="s">
+        <v>612</v>
+      </c>
+      <c r="I293" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>612</v>
+      </c>
+      <c r="B294" t="s">
+        <v>612</v>
+      </c>
+      <c r="I294" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>612</v>
+      </c>
+      <c r="B295" t="s">
+        <v>612</v>
+      </c>
+      <c r="I295" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" t="s">
+        <v>612</v>
+      </c>
+      <c r="B296" t="s">
+        <v>612</v>
+      </c>
+      <c r="I296" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" t="s">
+        <v>612</v>
+      </c>
+      <c r="B297" t="s">
+        <v>612</v>
+      </c>
+      <c r="I297" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" t="s">
+        <v>612</v>
+      </c>
+      <c r="B298" t="s">
+        <v>612</v>
+      </c>
+      <c r="I298" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" t="s">
+        <v>612</v>
+      </c>
+      <c r="B299" t="s">
+        <v>612</v>
+      </c>
+      <c r="I299" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" t="s">
+        <v>652</v>
+      </c>
+      <c r="B300" t="s">
+        <v>652</v>
+      </c>
+      <c r="I300" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" t="s">
+        <v>652</v>
+      </c>
+      <c r="B301" t="s">
+        <v>652</v>
+      </c>
+      <c r="I301" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" t="s">
+        <v>655</v>
+      </c>
+      <c r="B302" t="s">
+        <v>655</v>
+      </c>
+      <c r="I302" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" t="s">
+        <v>655</v>
+      </c>
+      <c r="B303" t="s">
+        <v>655</v>
+      </c>
+      <c r="I303" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" t="s">
+        <v>658</v>
+      </c>
+      <c r="B304" t="s">
+        <v>658</v>
+      </c>
+      <c r="I304" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>658</v>
+      </c>
+      <c r="B305" t="s">
+        <v>658</v>
+      </c>
+      <c r="I305" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" t="s">
+        <v>658</v>
+      </c>
+      <c r="B306" t="s">
+        <v>658</v>
+      </c>
+      <c r="I306" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>658</v>
+      </c>
+      <c r="B307" t="s">
+        <v>658</v>
+      </c>
+      <c r="I307" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>658</v>
+      </c>
+      <c r="B308" t="s">
+        <v>658</v>
+      </c>
+      <c r="I308" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>658</v>
+      </c>
+      <c r="B309" t="s">
+        <v>658</v>
+      </c>
+      <c r="I309" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>658</v>
+      </c>
+      <c r="B310" t="s">
+        <v>658</v>
+      </c>
+      <c r="I310" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>658</v>
+      </c>
+      <c r="B311" t="s">
+        <v>658</v>
+      </c>
+      <c r="I311" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>658</v>
+      </c>
+      <c r="B312" t="s">
+        <v>658</v>
+      </c>
+      <c r="I312" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>668</v>
+      </c>
+      <c r="B313" t="s">
+        <v>668</v>
+      </c>
+      <c r="I313" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>670</v>
+      </c>
+      <c r="B314" t="s">
+        <v>670</v>
+      </c>
+      <c r="I314" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>670</v>
+      </c>
+      <c r="B315" t="s">
+        <v>670</v>
+      </c>
+      <c r="I315" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>670</v>
+      </c>
+      <c r="B316" t="s">
+        <v>670</v>
+      </c>
+      <c r="I316" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>670</v>
+      </c>
+      <c r="B317" t="s">
+        <v>670</v>
+      </c>
+      <c r="I317" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>670</v>
+      </c>
+      <c r="B318" t="s">
+        <v>670</v>
+      </c>
+      <c r="I318" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>670</v>
+      </c>
+      <c r="B319" t="s">
+        <v>670</v>
+      </c>
+      <c r="I319" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>670</v>
+      </c>
+      <c r="B320" t="s">
+        <v>670</v>
+      </c>
+      <c r="I320" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>670</v>
+      </c>
+      <c r="B321" t="s">
+        <v>670</v>
+      </c>
+      <c r="I321" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>670</v>
+      </c>
+      <c r="B322" t="s">
+        <v>670</v>
+      </c>
+      <c r="I322" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>670</v>
+      </c>
+      <c r="B323" t="s">
+        <v>670</v>
+      </c>
+      <c r="I323" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>670</v>
+      </c>
+      <c r="B324" t="s">
+        <v>670</v>
+      </c>
+      <c r="I324" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>670</v>
+      </c>
+      <c r="B325" t="s">
+        <v>670</v>
+      </c>
+      <c r="I325" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>670</v>
+      </c>
+      <c r="B326" t="s">
+        <v>670</v>
+      </c>
+      <c r="I326" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>670</v>
+      </c>
+      <c r="B327" t="s">
+        <v>670</v>
+      </c>
+      <c r="I327" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>670</v>
+      </c>
+      <c r="B328" t="s">
+        <v>670</v>
+      </c>
+      <c r="I328" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>670</v>
+      </c>
+      <c r="B329" t="s">
+        <v>670</v>
+      </c>
+      <c r="I329" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>670</v>
+      </c>
+      <c r="B330" t="s">
+        <v>670</v>
+      </c>
+      <c r="I330" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>670</v>
+      </c>
+      <c r="B331" t="s">
+        <v>670</v>
+      </c>
+      <c r="I331" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>670</v>
+      </c>
+      <c r="B332" t="s">
+        <v>670</v>
+      </c>
+      <c r="I332" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>670</v>
+      </c>
+      <c r="B333" t="s">
+        <v>670</v>
+      </c>
+      <c r="I333" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>670</v>
+      </c>
+      <c r="B334" t="s">
+        <v>670</v>
+      </c>
+      <c r="I334" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>670</v>
+      </c>
+      <c r="B335" t="s">
+        <v>670</v>
+      </c>
+      <c r="I335" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" t="s">
+        <v>670</v>
+      </c>
+      <c r="I336" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>670</v>
+      </c>
+      <c r="B337" t="s">
+        <v>670</v>
+      </c>
+      <c r="I337" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>670</v>
+      </c>
+      <c r="B338" t="s">
+        <v>670</v>
+      </c>
+      <c r="I338" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>670</v>
+      </c>
+      <c r="B339" t="s">
+        <v>670</v>
+      </c>
+      <c r="I339" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>670</v>
+      </c>
+      <c r="B340" t="s">
+        <v>670</v>
+      </c>
+      <c r="I340" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>670</v>
+      </c>
+      <c r="B341" t="s">
+        <v>670</v>
+      </c>
+      <c r="I341" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>670</v>
+      </c>
+      <c r="B342" t="s">
+        <v>670</v>
+      </c>
+      <c r="I342" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>670</v>
+      </c>
+      <c r="B343" t="s">
+        <v>670</v>
+      </c>
+      <c r="I343" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>670</v>
+      </c>
+      <c r="B344" t="s">
+        <v>670</v>
+      </c>
+      <c r="I344" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>670</v>
+      </c>
+      <c r="B345" t="s">
+        <v>670</v>
+      </c>
+      <c r="I345" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>670</v>
+      </c>
+      <c r="B346" t="s">
+        <v>670</v>
+      </c>
+      <c r="I346" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>670</v>
+      </c>
+      <c r="B347" t="s">
+        <v>670</v>
+      </c>
+      <c r="I347" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>670</v>
+      </c>
+      <c r="B348" t="s">
+        <v>670</v>
+      </c>
+      <c r="I348" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>670</v>
+      </c>
+      <c r="B349" t="s">
+        <v>670</v>
+      </c>
+      <c r="I349" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>670</v>
+      </c>
+      <c r="B350" t="s">
+        <v>670</v>
+      </c>
+      <c r="I350" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>670</v>
+      </c>
+      <c r="B351" t="s">
+        <v>670</v>
+      </c>
+      <c r="I351" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>670</v>
+      </c>
+      <c r="B352" t="s">
+        <v>670</v>
+      </c>
+      <c r="I352" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>670</v>
+      </c>
+      <c r="B353" t="s">
+        <v>670</v>
+      </c>
+      <c r="I353" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>670</v>
+      </c>
+      <c r="B354" t="s">
+        <v>670</v>
+      </c>
+      <c r="I354" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>670</v>
+      </c>
+      <c r="B355" t="s">
+        <v>670</v>
+      </c>
+      <c r="I355" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>670</v>
+      </c>
+      <c r="B356" t="s">
+        <v>670</v>
+      </c>
+      <c r="I356" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>670</v>
+      </c>
+      <c r="B357" t="s">
+        <v>670</v>
+      </c>
+      <c r="I357" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>670</v>
+      </c>
+      <c r="B358" t="s">
+        <v>670</v>
+      </c>
+      <c r="I358" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>670</v>
+      </c>
+      <c r="B359" t="s">
+        <v>670</v>
+      </c>
+      <c r="I359" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>670</v>
+      </c>
+      <c r="B360" t="s">
+        <v>670</v>
+      </c>
+      <c r="I360" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>670</v>
+      </c>
+      <c r="B361" t="s">
+        <v>670</v>
+      </c>
+      <c r="I361" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>670</v>
+      </c>
+      <c r="B362" t="s">
+        <v>670</v>
+      </c>
+      <c r="I362" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>670</v>
+      </c>
+      <c r="B363" t="s">
+        <v>670</v>
+      </c>
+      <c r="I363" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>670</v>
+      </c>
+      <c r="B364" t="s">
+        <v>670</v>
+      </c>
+      <c r="I364" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>670</v>
+      </c>
+      <c r="B365" t="s">
+        <v>670</v>
+      </c>
+      <c r="I365" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>670</v>
+      </c>
+      <c r="B366" t="s">
+        <v>670</v>
+      </c>
+      <c r="I366" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>670</v>
+      </c>
+      <c r="B367" t="s">
+        <v>670</v>
+      </c>
+      <c r="I367" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>670</v>
+      </c>
+      <c r="B368" t="s">
+        <v>670</v>
+      </c>
+      <c r="I368" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>670</v>
+      </c>
+      <c r="B369" t="s">
+        <v>670</v>
+      </c>
+      <c r="I369" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>670</v>
+      </c>
+      <c r="B370" t="s">
+        <v>670</v>
+      </c>
+      <c r="I370" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>670</v>
+      </c>
+      <c r="B371" t="s">
+        <v>670</v>
+      </c>
+      <c r="I371" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>670</v>
+      </c>
+      <c r="B372" t="s">
+        <v>670</v>
+      </c>
+      <c r="I372" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>670</v>
+      </c>
+      <c r="B373" t="s">
+        <v>670</v>
+      </c>
+      <c r="I373" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>670</v>
+      </c>
+      <c r="B374" t="s">
+        <v>670</v>
+      </c>
+      <c r="I374" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>670</v>
+      </c>
+      <c r="B375" t="s">
+        <v>670</v>
+      </c>
+      <c r="I375" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>670</v>
+      </c>
+      <c r="B376" t="s">
+        <v>670</v>
+      </c>
+      <c r="I376" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>670</v>
+      </c>
+      <c r="B377" t="s">
+        <v>670</v>
+      </c>
+      <c r="I377" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>670</v>
+      </c>
+      <c r="B378" t="s">
+        <v>670</v>
+      </c>
+      <c r="I378" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>670</v>
+      </c>
+      <c r="B379" t="s">
+        <v>670</v>
+      </c>
+      <c r="I379" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>670</v>
+      </c>
+      <c r="B380" t="s">
+        <v>670</v>
+      </c>
+      <c r="I380" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>670</v>
+      </c>
+      <c r="B381" t="s">
+        <v>670</v>
+      </c>
+      <c r="I381" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>670</v>
+      </c>
+      <c r="B382" t="s">
+        <v>670</v>
+      </c>
+      <c r="I382" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>670</v>
+      </c>
+      <c r="B383" t="s">
+        <v>670</v>
+      </c>
+      <c r="I383" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>670</v>
+      </c>
+      <c r="B384" t="s">
+        <v>670</v>
+      </c>
+      <c r="I384" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>670</v>
+      </c>
+      <c r="B385" t="s">
+        <v>670</v>
+      </c>
+      <c r="I385" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>670</v>
+      </c>
+      <c r="B386" t="s">
+        <v>670</v>
+      </c>
+      <c r="I386" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>670</v>
+      </c>
+      <c r="B387" t="s">
+        <v>670</v>
+      </c>
+      <c r="I387" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>670</v>
+      </c>
+      <c r="B388" t="s">
+        <v>670</v>
+      </c>
+      <c r="I388" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>670</v>
+      </c>
+      <c r="B389" t="s">
+        <v>670</v>
+      </c>
+      <c r="I389" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>670</v>
+      </c>
+      <c r="B390" t="s">
+        <v>670</v>
+      </c>
+      <c r="I390" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>670</v>
+      </c>
+      <c r="B391" t="s">
+        <v>670</v>
+      </c>
+      <c r="I391" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>670</v>
+      </c>
+      <c r="B392" t="s">
+        <v>670</v>
+      </c>
+      <c r="I392" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>670</v>
+      </c>
+      <c r="B393" t="s">
+        <v>670</v>
+      </c>
+      <c r="I393" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>670</v>
+      </c>
+      <c r="B394" t="s">
+        <v>670</v>
+      </c>
+      <c r="I394" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>670</v>
+      </c>
+      <c r="B395" t="s">
+        <v>670</v>
+      </c>
+      <c r="I395" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>670</v>
+      </c>
+      <c r="B396" t="s">
+        <v>670</v>
+      </c>
+      <c r="I396" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>670</v>
+      </c>
+      <c r="B397" t="s">
+        <v>670</v>
+      </c>
+      <c r="I397" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>670</v>
+      </c>
+      <c r="B398" t="s">
+        <v>670</v>
+      </c>
+      <c r="I398" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>670</v>
+      </c>
+      <c r="B399" t="s">
+        <v>670</v>
+      </c>
+      <c r="I399" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>670</v>
+      </c>
+      <c r="B400" t="s">
+        <v>670</v>
+      </c>
+      <c r="I400" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>670</v>
+      </c>
+      <c r="B401" t="s">
+        <v>670</v>
+      </c>
+      <c r="I401" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>670</v>
+      </c>
+      <c r="B402" t="s">
+        <v>670</v>
+      </c>
+      <c r="I402" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>670</v>
+      </c>
+      <c r="B403" t="s">
+        <v>670</v>
+      </c>
+      <c r="I403" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>670</v>
+      </c>
+      <c r="B404" t="s">
+        <v>670</v>
+      </c>
+      <c r="I404" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>670</v>
+      </c>
+      <c r="B405" t="s">
+        <v>670</v>
+      </c>
+      <c r="I405" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>670</v>
+      </c>
+      <c r="B406" t="s">
+        <v>670</v>
+      </c>
+      <c r="I406" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>670</v>
+      </c>
+      <c r="B407" t="s">
+        <v>670</v>
+      </c>
+      <c r="I407" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>670</v>
+      </c>
+      <c r="B408" t="s">
+        <v>670</v>
+      </c>
+      <c r="I408" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>670</v>
+      </c>
+      <c r="B409" t="s">
+        <v>670</v>
+      </c>
+      <c r="I409" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>670</v>
+      </c>
+      <c r="B410" t="s">
+        <v>670</v>
+      </c>
+      <c r="I410" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>670</v>
+      </c>
+      <c r="B411" t="s">
+        <v>670</v>
+      </c>
+      <c r="I411" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>670</v>
+      </c>
+      <c r="B412" t="s">
+        <v>670</v>
+      </c>
+      <c r="I412" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>670</v>
+      </c>
+      <c r="B413" t="s">
+        <v>670</v>
+      </c>
+      <c r="I413" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>670</v>
+      </c>
+      <c r="B414" t="s">
+        <v>670</v>
+      </c>
+      <c r="I414" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>670</v>
+      </c>
+      <c r="B415" t="s">
+        <v>670</v>
+      </c>
+      <c r="I415" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>670</v>
+      </c>
+      <c r="B416" t="s">
+        <v>670</v>
+      </c>
+      <c r="I416" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>670</v>
+      </c>
+      <c r="B417" t="s">
+        <v>670</v>
+      </c>
+      <c r="I417" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>670</v>
+      </c>
+      <c r="B418" t="s">
+        <v>670</v>
+      </c>
+      <c r="I418" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>670</v>
+      </c>
+      <c r="B419" t="s">
+        <v>670</v>
+      </c>
+      <c r="I419" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>670</v>
+      </c>
+      <c r="B420" t="s">
+        <v>670</v>
+      </c>
+      <c r="I420" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>670</v>
+      </c>
+      <c r="B421" t="s">
+        <v>670</v>
+      </c>
+      <c r="I421" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422" t="s">
+        <v>670</v>
+      </c>
+      <c r="I422" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>670</v>
+      </c>
+      <c r="B423" t="s">
+        <v>670</v>
+      </c>
+      <c r="I423" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>670</v>
+      </c>
+      <c r="B424" t="s">
+        <v>670</v>
+      </c>
+      <c r="I424" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>670</v>
+      </c>
+      <c r="B425" t="s">
+        <v>670</v>
+      </c>
+      <c r="I425" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>670</v>
+      </c>
+      <c r="B426" t="s">
+        <v>670</v>
+      </c>
+      <c r="I426" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>670</v>
+      </c>
+      <c r="B427" t="s">
+        <v>670</v>
+      </c>
+      <c r="I427" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>670</v>
+      </c>
+      <c r="B428" t="s">
+        <v>670</v>
+      </c>
+      <c r="I428" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>670</v>
+      </c>
+      <c r="B429" t="s">
+        <v>670</v>
+      </c>
+      <c r="I429" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>670</v>
+      </c>
+      <c r="B430" t="s">
+        <v>670</v>
+      </c>
+      <c r="I430" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>670</v>
+      </c>
+      <c r="B431" t="s">
+        <v>670</v>
+      </c>
+      <c r="I431" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="s">
+        <v>670</v>
+      </c>
+      <c r="B432" t="s">
+        <v>670</v>
+      </c>
+      <c r="I432" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="s">
+        <v>670</v>
+      </c>
+      <c r="B433" t="s">
+        <v>670</v>
+      </c>
+      <c r="I433" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="s">
+        <v>670</v>
+      </c>
+      <c r="B434" t="s">
+        <v>670</v>
+      </c>
+      <c r="I434" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="s">
+        <v>670</v>
+      </c>
+      <c r="B435" t="s">
+        <v>670</v>
+      </c>
+      <c r="I435" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="s">
+        <v>670</v>
+      </c>
+      <c r="B436" t="s">
+        <v>670</v>
+      </c>
+      <c r="I436" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="s">
+        <v>670</v>
+      </c>
+      <c r="B437" t="s">
+        <v>670</v>
+      </c>
+      <c r="I437" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="s">
+        <v>670</v>
+      </c>
+      <c r="B438" t="s">
+        <v>670</v>
+      </c>
+      <c r="I438" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="s">
+        <v>670</v>
+      </c>
+      <c r="B439" t="s">
+        <v>670</v>
+      </c>
+      <c r="I439" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="s">
+        <v>796</v>
+      </c>
+      <c r="B440" t="s">
+        <v>796</v>
+      </c>
+      <c r="I440" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="s">
+        <v>796</v>
+      </c>
+      <c r="B441" t="s">
+        <v>796</v>
+      </c>
+      <c r="I441" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="s">
+        <v>796</v>
+      </c>
+      <c r="B442" t="s">
+        <v>796</v>
+      </c>
+      <c r="I442" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="s">
+        <v>796</v>
+      </c>
+      <c r="B443" t="s">
+        <v>796</v>
+      </c>
+      <c r="I443" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="s">
+        <v>796</v>
+      </c>
+      <c r="B444" t="s">
+        <v>796</v>
+      </c>
+      <c r="I444" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="s">
+        <v>796</v>
+      </c>
+      <c r="B445" t="s">
+        <v>796</v>
+      </c>
+      <c r="I445" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="s">
+        <v>796</v>
+      </c>
+      <c r="B446" t="s">
+        <v>796</v>
+      </c>
+      <c r="I446" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="s">
+        <v>796</v>
+      </c>
+      <c r="B447" t="s">
+        <v>796</v>
+      </c>
+      <c r="I447" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="s">
+        <v>796</v>
+      </c>
+      <c r="B448" t="s">
+        <v>796</v>
+      </c>
+      <c r="I448" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="s">
+        <v>796</v>
+      </c>
+      <c r="B449" t="s">
+        <v>796</v>
+      </c>
+      <c r="I449" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="s">
+        <v>796</v>
+      </c>
+      <c r="B450" t="s">
+        <v>796</v>
+      </c>
+      <c r="I450" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="s">
+        <v>808</v>
+      </c>
+      <c r="B451" t="s">
+        <v>808</v>
+      </c>
+      <c r="I451" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="s">
+        <v>808</v>
+      </c>
+      <c r="B452" t="s">
+        <v>808</v>
+      </c>
+      <c r="I452" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="s">
+        <v>808</v>
+      </c>
+      <c r="B453" t="s">
+        <v>808</v>
+      </c>
+      <c r="I453" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="s">
+        <v>808</v>
+      </c>
+      <c r="B454" t="s">
+        <v>808</v>
+      </c>
+      <c r="I454" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="s">
+        <v>808</v>
+      </c>
+      <c r="B455" t="s">
+        <v>808</v>
+      </c>
+      <c r="I455" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="s">
+        <v>808</v>
+      </c>
+      <c r="B456" t="s">
+        <v>808</v>
+      </c>
+      <c r="I456" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="s">
+        <v>808</v>
+      </c>
+      <c r="B457" t="s">
+        <v>808</v>
+      </c>
+      <c r="I457" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="s">
+        <v>808</v>
+      </c>
+      <c r="B458" t="s">
+        <v>808</v>
+      </c>
+      <c r="I458" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>808</v>
+      </c>
+      <c r="B459" t="s">
+        <v>808</v>
+      </c>
+      <c r="I459" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>808</v>
+      </c>
+      <c r="B460" t="s">
+        <v>808</v>
+      </c>
+      <c r="I460" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>808</v>
+      </c>
+      <c r="B461" t="s">
+        <v>808</v>
+      </c>
+      <c r="I461" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>808</v>
+      </c>
+      <c r="B462" t="s">
+        <v>808</v>
+      </c>
+      <c r="I462" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>808</v>
+      </c>
+      <c r="B463" t="s">
+        <v>808</v>
+      </c>
+      <c r="I463" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>808</v>
+      </c>
+      <c r="B464" t="s">
+        <v>808</v>
+      </c>
+      <c r="I464" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>821</v>
+      </c>
+      <c r="B465" t="s">
+        <v>821</v>
+      </c>
+      <c r="I465" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>821</v>
+      </c>
+      <c r="B466" t="s">
+        <v>821</v>
+      </c>
+      <c r="I466" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>821</v>
+      </c>
+      <c r="B467" t="s">
+        <v>821</v>
+      </c>
+      <c r="I467" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>824</v>
+      </c>
+      <c r="B468" t="s">
+        <v>824</v>
+      </c>
+      <c r="I468" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>826</v>
+      </c>
+      <c r="B469" t="s">
+        <v>826</v>
+      </c>
+      <c r="I469" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>828</v>
+      </c>
+      <c r="B470" t="s">
+        <v>828</v>
+      </c>
+      <c r="I470" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>828</v>
+      </c>
+      <c r="B471" t="s">
+        <v>828</v>
+      </c>
+      <c r="I471" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>828</v>
+      </c>
+      <c r="B472" t="s">
+        <v>828</v>
+      </c>
+      <c r="I472" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>828</v>
+      </c>
+      <c r="B473" t="s">
+        <v>828</v>
+      </c>
+      <c r="I473" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>828</v>
+      </c>
+      <c r="B474" t="s">
+        <v>828</v>
+      </c>
+      <c r="I474" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>828</v>
+      </c>
+      <c r="B475" t="s">
+        <v>828</v>
+      </c>
+      <c r="I475" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>828</v>
+      </c>
+      <c r="B476" t="s">
+        <v>828</v>
+      </c>
+      <c r="I476" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>828</v>
+      </c>
+      <c r="B477" t="s">
+        <v>828</v>
+      </c>
+      <c r="I477" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>828</v>
+      </c>
+      <c r="B478" t="s">
+        <v>828</v>
+      </c>
+      <c r="I478" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>828</v>
+      </c>
+      <c r="B479" t="s">
+        <v>828</v>
+      </c>
+      <c r="I479" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>828</v>
+      </c>
+      <c r="B480" t="s">
+        <v>828</v>
+      </c>
+      <c r="I480" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>828</v>
+      </c>
+      <c r="B481" t="s">
+        <v>828</v>
+      </c>
+      <c r="I481" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>828</v>
+      </c>
+      <c r="B482" t="s">
+        <v>828</v>
+      </c>
+      <c r="I482" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>828</v>
+      </c>
+      <c r="B483" t="s">
+        <v>828</v>
+      </c>
+      <c r="I483" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>828</v>
+      </c>
+      <c r="B484" t="s">
+        <v>828</v>
+      </c>
+      <c r="I484" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>828</v>
+      </c>
+      <c r="B485" t="s">
+        <v>828</v>
+      </c>
+      <c r="I485" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>828</v>
+      </c>
+      <c r="B486" t="s">
+        <v>828</v>
+      </c>
+      <c r="I486" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>828</v>
+      </c>
+      <c r="B487" t="s">
+        <v>828</v>
+      </c>
+      <c r="I487" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>828</v>
+      </c>
+      <c r="B488" t="s">
+        <v>828</v>
+      </c>
+      <c r="I488" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>828</v>
+      </c>
+      <c r="B489" t="s">
+        <v>828</v>
+      </c>
+      <c r="I489" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>828</v>
+      </c>
+      <c r="B490" t="s">
+        <v>828</v>
+      </c>
+      <c r="I490" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>828</v>
+      </c>
+      <c r="B491" t="s">
+        <v>828</v>
+      </c>
+      <c r="I491" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>828</v>
+      </c>
+      <c r="B492" t="s">
+        <v>828</v>
+      </c>
+      <c r="I492" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>828</v>
+      </c>
+      <c r="B493" t="s">
+        <v>828</v>
+      </c>
+      <c r="I493" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>828</v>
+      </c>
+      <c r="B494" t="s">
+        <v>828</v>
+      </c>
+      <c r="I494" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>828</v>
+      </c>
+      <c r="B495" t="s">
+        <v>828</v>
+      </c>
+      <c r="I495" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>828</v>
+      </c>
+      <c r="B496" t="s">
+        <v>828</v>
+      </c>
+      <c r="I496" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>828</v>
+      </c>
+      <c r="B497" t="s">
+        <v>828</v>
+      </c>
+      <c r="I497" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>828</v>
+      </c>
+      <c r="B498" t="s">
+        <v>828</v>
+      </c>
+      <c r="I498" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>828</v>
+      </c>
+      <c r="B499" t="s">
+        <v>828</v>
+      </c>
+      <c r="I499" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>828</v>
+      </c>
+      <c r="B500" t="s">
+        <v>828</v>
+      </c>
+      <c r="I500" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>828</v>
+      </c>
+      <c r="B501" t="s">
+        <v>828</v>
+      </c>
+      <c r="I501" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>828</v>
+      </c>
+      <c r="B502" t="s">
+        <v>828</v>
+      </c>
+      <c r="I502" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>828</v>
+      </c>
+      <c r="B503" t="s">
+        <v>828</v>
+      </c>
+      <c r="I503" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>828</v>
+      </c>
+      <c r="B504" t="s">
+        <v>828</v>
+      </c>
+      <c r="I504" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>828</v>
+      </c>
+      <c r="B505" t="s">
+        <v>828</v>
+      </c>
+      <c r="I505" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>828</v>
+      </c>
+      <c r="B506" t="s">
+        <v>828</v>
+      </c>
+      <c r="I506" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>828</v>
+      </c>
+      <c r="B507" t="s">
+        <v>828</v>
+      </c>
+      <c r="I507" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>828</v>
+      </c>
+      <c r="B508" t="s">
+        <v>828</v>
+      </c>
+      <c r="I508" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>828</v>
+      </c>
+      <c r="B509" t="s">
+        <v>828</v>
+      </c>
+      <c r="I509" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>828</v>
+      </c>
+      <c r="B510" t="s">
+        <v>828</v>
+      </c>
+      <c r="I510" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>828</v>
+      </c>
+      <c r="B511" t="s">
+        <v>828</v>
+      </c>
+      <c r="I511" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>828</v>
+      </c>
+      <c r="B512" t="s">
+        <v>828</v>
+      </c>
+      <c r="I512" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>828</v>
+      </c>
+      <c r="B513" t="s">
+        <v>828</v>
+      </c>
+      <c r="I513" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>828</v>
+      </c>
+      <c r="B514" t="s">
+        <v>828</v>
+      </c>
+      <c r="I514" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>873</v>
+      </c>
+      <c r="B515" t="s">
+        <v>873</v>
+      </c>
+      <c r="I515" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>873</v>
+      </c>
+      <c r="B516" t="s">
+        <v>873</v>
+      </c>
+      <c r="I516" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>873</v>
+      </c>
+      <c r="B517" t="s">
+        <v>873</v>
+      </c>
+      <c r="I517" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>873</v>
+      </c>
+      <c r="B518" t="s">
+        <v>873</v>
+      </c>
+      <c r="I518" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>873</v>
+      </c>
+      <c r="B519" t="s">
+        <v>873</v>
+      </c>
+      <c r="I519" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>873</v>
+      </c>
+      <c r="B520" t="s">
+        <v>873</v>
+      </c>
+      <c r="I520" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>873</v>
+      </c>
+      <c r="B521" t="s">
+        <v>873</v>
+      </c>
+      <c r="I521" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>873</v>
+      </c>
+      <c r="B522" t="s">
+        <v>873</v>
+      </c>
+      <c r="I522" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>873</v>
+      </c>
+      <c r="B523" t="s">
+        <v>873</v>
+      </c>
+      <c r="I523" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>881</v>
+      </c>
+      <c r="B524" t="s">
+        <v>881</v>
+      </c>
+      <c r="I524" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>881</v>
+      </c>
+      <c r="B525" t="s">
+        <v>881</v>
+      </c>
+      <c r="I525" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>881</v>
+      </c>
+      <c r="B526" t="s">
+        <v>881</v>
+      </c>
+      <c r="I526" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>881</v>
+      </c>
+      <c r="B527" t="s">
+        <v>881</v>
+      </c>
+      <c r="I527" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>881</v>
+      </c>
+      <c r="B528" t="s">
+        <v>881</v>
+      </c>
+      <c r="I528" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>881</v>
+      </c>
+      <c r="B529" t="s">
+        <v>881</v>
+      </c>
+      <c r="I529" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>881</v>
+      </c>
+      <c r="B530" t="s">
+        <v>881</v>
+      </c>
+      <c r="I530" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>881</v>
+      </c>
+      <c r="B531" t="s">
+        <v>881</v>
+      </c>
+      <c r="I531" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>881</v>
+      </c>
+      <c r="B532" t="s">
+        <v>881</v>
+      </c>
+      <c r="I532" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>881</v>
+      </c>
+      <c r="B533" t="s">
+        <v>881</v>
+      </c>
+      <c r="I533" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>881</v>
+      </c>
+      <c r="B534" t="s">
+        <v>881</v>
+      </c>
+      <c r="I534" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>881</v>
+      </c>
+      <c r="B535" t="s">
+        <v>881</v>
+      </c>
+      <c r="I535" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>881</v>
+      </c>
+      <c r="B536" t="s">
+        <v>881</v>
+      </c>
+      <c r="I536" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>881</v>
+      </c>
+      <c r="B537" t="s">
+        <v>881</v>
+      </c>
+      <c r="I537" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>881</v>
+      </c>
+      <c r="B538" t="s">
+        <v>881</v>
+      </c>
+      <c r="I538" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>881</v>
+      </c>
+      <c r="B539" t="s">
+        <v>881</v>
+      </c>
+      <c r="I539" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>881</v>
+      </c>
+      <c r="B540" t="s">
+        <v>881</v>
+      </c>
+      <c r="I540" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>881</v>
+      </c>
+      <c r="B541" t="s">
+        <v>881</v>
+      </c>
+      <c r="I541" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>881</v>
+      </c>
+      <c r="B542" t="s">
+        <v>881</v>
+      </c>
+      <c r="I542" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>881</v>
+      </c>
+      <c r="B543" t="s">
+        <v>881</v>
+      </c>
+      <c r="I543" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>881</v>
+      </c>
+      <c r="B544" t="s">
+        <v>881</v>
+      </c>
+      <c r="I544" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>881</v>
+      </c>
+      <c r="B545" t="s">
+        <v>881</v>
+      </c>
+      <c r="I545" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>881</v>
+      </c>
+      <c r="B546" t="s">
+        <v>881</v>
+      </c>
+      <c r="I546" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>881</v>
+      </c>
+      <c r="B547" t="s">
+        <v>881</v>
+      </c>
+      <c r="I547" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>881</v>
+      </c>
+      <c r="B548" t="s">
+        <v>881</v>
+      </c>
+      <c r="I548" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>881</v>
+      </c>
+      <c r="B549" t="s">
+        <v>881</v>
+      </c>
+      <c r="I549" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>881</v>
+      </c>
+      <c r="B550" t="s">
+        <v>881</v>
+      </c>
+      <c r="I550" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>881</v>
+      </c>
+      <c r="B551" t="s">
+        <v>881</v>
+      </c>
+      <c r="I551" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>881</v>
+      </c>
+      <c r="B552" t="s">
+        <v>881</v>
+      </c>
+      <c r="I552" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>881</v>
+      </c>
+      <c r="B553" t="s">
+        <v>881</v>
+      </c>
+      <c r="I553" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" t="s">
+        <v>881</v>
+      </c>
+      <c r="B554" t="s">
+        <v>881</v>
+      </c>
+      <c r="I554" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>881</v>
+      </c>
+      <c r="B555" t="s">
+        <v>881</v>
+      </c>
+      <c r="I555" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" t="s">
+        <v>881</v>
+      </c>
+      <c r="B556" t="s">
+        <v>881</v>
+      </c>
+      <c r="I556" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" t="s">
+        <v>881</v>
+      </c>
+      <c r="B557" t="s">
+        <v>881</v>
+      </c>
+      <c r="I557" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" t="s">
+        <v>881</v>
+      </c>
+      <c r="B558" t="s">
+        <v>881</v>
+      </c>
+      <c r="I558" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" t="s">
+        <v>881</v>
+      </c>
+      <c r="B559" t="s">
+        <v>881</v>
+      </c>
+      <c r="I559" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" t="s">
+        <v>881</v>
+      </c>
+      <c r="B560" t="s">
+        <v>881</v>
+      </c>
+      <c r="I560" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
+      <c r="A561" t="s">
+        <v>881</v>
+      </c>
+      <c r="B561" t="s">
+        <v>881</v>
+      </c>
+      <c r="I561" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9">
+      <c r="A562" t="s">
+        <v>881</v>
+      </c>
+      <c r="B562" t="s">
+        <v>881</v>
+      </c>
+      <c r="I562" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" t="s">
+        <v>881</v>
+      </c>
+      <c r="B563" t="s">
+        <v>881</v>
+      </c>
+      <c r="I563" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" t="s">
+        <v>881</v>
+      </c>
+      <c r="B564" t="s">
+        <v>881</v>
+      </c>
+      <c r="I564" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565" t="s">
+        <v>881</v>
+      </c>
+      <c r="B565" t="s">
+        <v>881</v>
+      </c>
+      <c r="I565" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" t="s">
+        <v>881</v>
+      </c>
+      <c r="B566" t="s">
+        <v>881</v>
+      </c>
+      <c r="I566" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" t="s">
+        <v>881</v>
+      </c>
+      <c r="B567" t="s">
+        <v>881</v>
+      </c>
+      <c r="I567" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" t="s">
+        <v>881</v>
+      </c>
+      <c r="B568" t="s">
+        <v>881</v>
+      </c>
+      <c r="I568" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" t="s">
+        <v>881</v>
+      </c>
+      <c r="B569" t="s">
+        <v>881</v>
+      </c>
+      <c r="I569" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" t="s">
+        <v>881</v>
+      </c>
+      <c r="B570" t="s">
+        <v>881</v>
+      </c>
+      <c r="I570" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" t="s">
+        <v>881</v>
+      </c>
+      <c r="B571" t="s">
+        <v>881</v>
+      </c>
+      <c r="I571" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" t="s">
+        <v>881</v>
+      </c>
+      <c r="B572" t="s">
+        <v>881</v>
+      </c>
+      <c r="I572" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" t="s">
+        <v>881</v>
+      </c>
+      <c r="B573" t="s">
+        <v>881</v>
+      </c>
+      <c r="I573" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" t="s">
+        <v>881</v>
+      </c>
+      <c r="B574" t="s">
+        <v>881</v>
+      </c>
+      <c r="I574" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" t="s">
+        <v>881</v>
+      </c>
+      <c r="B575" t="s">
+        <v>881</v>
+      </c>
+      <c r="I575" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" t="s">
+        <v>881</v>
+      </c>
+      <c r="B576" t="s">
+        <v>881</v>
+      </c>
+      <c r="I576" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" t="s">
+        <v>881</v>
+      </c>
+      <c r="B577" t="s">
+        <v>881</v>
+      </c>
+      <c r="I577" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" t="s">
+        <v>881</v>
+      </c>
+      <c r="B578" t="s">
+        <v>881</v>
+      </c>
+      <c r="I578" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9">
+      <c r="A579" t="s">
+        <v>881</v>
+      </c>
+      <c r="B579" t="s">
+        <v>881</v>
+      </c>
+      <c r="I579" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9">
+      <c r="A580" t="s">
+        <v>881</v>
+      </c>
+      <c r="B580" t="s">
+        <v>881</v>
+      </c>
+      <c r="I580" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" t="s">
+        <v>881</v>
+      </c>
+      <c r="B581" t="s">
+        <v>881</v>
+      </c>
+      <c r="I581" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9">
+      <c r="A582" t="s">
+        <v>881</v>
+      </c>
+      <c r="B582" t="s">
+        <v>881</v>
+      </c>
+      <c r="I582" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9">
+      <c r="A583" t="s">
+        <v>881</v>
+      </c>
+      <c r="B583" t="s">
+        <v>881</v>
+      </c>
+      <c r="I583" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9">
+      <c r="A584" t="s">
+        <v>881</v>
+      </c>
+      <c r="B584" t="s">
+        <v>881</v>
+      </c>
+      <c r="I584" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9">
+      <c r="A585" t="s">
+        <v>881</v>
+      </c>
+      <c r="B585" t="s">
+        <v>881</v>
+      </c>
+      <c r="I585" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9">
+      <c r="A586" t="s">
+        <v>881</v>
+      </c>
+      <c r="B586" t="s">
+        <v>881</v>
+      </c>
+      <c r="I586" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9">
+      <c r="A587" t="s">
+        <v>881</v>
+      </c>
+      <c r="B587" t="s">
+        <v>881</v>
+      </c>
+      <c r="I587" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9">
+      <c r="A588" t="s">
+        <v>881</v>
+      </c>
+      <c r="B588" t="s">
+        <v>881</v>
+      </c>
+      <c r="I588" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" t="s">
+        <v>881</v>
+      </c>
+      <c r="B589" t="s">
+        <v>881</v>
+      </c>
+      <c r="I589" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9">
+      <c r="A590" t="s">
+        <v>881</v>
+      </c>
+      <c r="B590" t="s">
+        <v>881</v>
+      </c>
+      <c r="I590" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" t="s">
+        <v>881</v>
+      </c>
+      <c r="B591" t="s">
+        <v>881</v>
+      </c>
+      <c r="I591" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592" t="s">
+        <v>881</v>
+      </c>
+      <c r="B592" t="s">
+        <v>881</v>
+      </c>
+      <c r="I592" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" t="s">
+        <v>881</v>
+      </c>
+      <c r="B593" t="s">
+        <v>881</v>
+      </c>
+      <c r="I593" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" t="s">
+        <v>881</v>
+      </c>
+      <c r="B594" t="s">
+        <v>881</v>
+      </c>
+      <c r="I594" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" t="s">
+        <v>881</v>
+      </c>
+      <c r="B595" t="s">
+        <v>881</v>
+      </c>
+      <c r="I595" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" t="s">
+        <v>881</v>
+      </c>
+      <c r="B596" t="s">
+        <v>881</v>
+      </c>
+      <c r="I596" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" t="s">
+        <v>881</v>
+      </c>
+      <c r="B597" t="s">
+        <v>881</v>
+      </c>
+      <c r="I597" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" t="s">
+        <v>881</v>
+      </c>
+      <c r="B598" t="s">
+        <v>881</v>
+      </c>
+      <c r="I598" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" t="s">
+        <v>881</v>
+      </c>
+      <c r="B599" t="s">
+        <v>881</v>
+      </c>
+      <c r="I599" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" t="s">
+        <v>881</v>
+      </c>
+      <c r="B600" t="s">
+        <v>881</v>
+      </c>
+      <c r="I600" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" t="s">
+        <v>881</v>
+      </c>
+      <c r="B601" t="s">
+        <v>881</v>
+      </c>
+      <c r="I601" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" t="s">
+        <v>881</v>
+      </c>
+      <c r="B602" t="s">
+        <v>881</v>
+      </c>
+      <c r="I602" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" t="s">
+        <v>881</v>
+      </c>
+      <c r="B603" t="s">
+        <v>881</v>
+      </c>
+      <c r="I603" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" t="s">
+        <v>881</v>
+      </c>
+      <c r="B604" t="s">
+        <v>881</v>
+      </c>
+      <c r="I604" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605" t="s">
+        <v>881</v>
+      </c>
+      <c r="B605" t="s">
+        <v>881</v>
+      </c>
+      <c r="I605" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606" t="s">
+        <v>881</v>
+      </c>
+      <c r="B606" t="s">
+        <v>881</v>
+      </c>
+      <c r="I606" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607" t="s">
+        <v>881</v>
+      </c>
+      <c r="B607" t="s">
+        <v>881</v>
+      </c>
+      <c r="I607" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608" t="s">
+        <v>881</v>
+      </c>
+      <c r="B608" t="s">
+        <v>881</v>
+      </c>
+      <c r="I608" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609" t="s">
+        <v>881</v>
+      </c>
+      <c r="B609" t="s">
+        <v>881</v>
+      </c>
+      <c r="I609" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610" t="s">
+        <v>881</v>
+      </c>
+      <c r="B610" t="s">
+        <v>881</v>
+      </c>
+      <c r="I610" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" t="s">
+        <v>881</v>
+      </c>
+      <c r="B611" t="s">
+        <v>881</v>
+      </c>
+      <c r="I611" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" t="s">
+        <v>881</v>
+      </c>
+      <c r="B612" t="s">
+        <v>881</v>
+      </c>
+      <c r="I612" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" t="s">
+        <v>881</v>
+      </c>
+      <c r="B613" t="s">
+        <v>881</v>
+      </c>
+      <c r="I613" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" t="s">
+        <v>881</v>
+      </c>
+      <c r="B614" t="s">
+        <v>881</v>
+      </c>
+      <c r="I614" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" t="s">
+        <v>881</v>
+      </c>
+      <c r="B615" t="s">
+        <v>881</v>
+      </c>
+      <c r="I615" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9">
+      <c r="A616" t="s">
+        <v>881</v>
+      </c>
+      <c r="B616" t="s">
+        <v>881</v>
+      </c>
+      <c r="I616" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617" t="s">
+        <v>881</v>
+      </c>
+      <c r="B617" t="s">
+        <v>881</v>
+      </c>
+      <c r="I617" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618" t="s">
+        <v>881</v>
+      </c>
+      <c r="B618" t="s">
+        <v>881</v>
+      </c>
+      <c r="I618" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9">
+      <c r="A619" t="s">
+        <v>881</v>
+      </c>
+      <c r="B619" t="s">
+        <v>881</v>
+      </c>
+      <c r="I619" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620" t="s">
+        <v>881</v>
+      </c>
+      <c r="B620" t="s">
+        <v>881</v>
+      </c>
+      <c r="I620" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9">
+      <c r="A621" t="s">
+        <v>881</v>
+      </c>
+      <c r="B621" t="s">
+        <v>881</v>
+      </c>
+      <c r="I621" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9">
+      <c r="A622" t="s">
+        <v>881</v>
+      </c>
+      <c r="B622" t="s">
+        <v>881</v>
+      </c>
+      <c r="I622" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9">
+      <c r="A623" t="s">
+        <v>979</v>
+      </c>
+      <c r="B623" t="s">
+        <v>979</v>
+      </c>
+      <c r="I623" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9">
+      <c r="A624" t="s">
+        <v>979</v>
+      </c>
+      <c r="B624" t="s">
+        <v>979</v>
+      </c>
+      <c r="I624" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9">
+      <c r="A625" t="s">
+        <v>979</v>
+      </c>
+      <c r="B625" t="s">
+        <v>979</v>
+      </c>
+      <c r="I625" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9">
+      <c r="A626" t="s">
+        <v>979</v>
+      </c>
+      <c r="B626" t="s">
+        <v>979</v>
+      </c>
+      <c r="I626" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9">
+      <c r="A627" t="s">
+        <v>979</v>
+      </c>
+      <c r="B627" t="s">
+        <v>979</v>
+      </c>
+      <c r="I627" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="A628" t="s">
+        <v>979</v>
+      </c>
+      <c r="B628" t="s">
+        <v>979</v>
+      </c>
+      <c r="I628" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9">
+      <c r="A629" t="s">
+        <v>979</v>
+      </c>
+      <c r="B629" t="s">
+        <v>979</v>
+      </c>
+      <c r="I629" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9">
+      <c r="A630" t="s">
+        <v>979</v>
+      </c>
+      <c r="B630" t="s">
+        <v>979</v>
+      </c>
+      <c r="I630" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9">
+      <c r="A631" t="s">
+        <v>979</v>
+      </c>
+      <c r="B631" t="s">
+        <v>979</v>
+      </c>
+      <c r="I631" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9">
+      <c r="A632" t="s">
+        <v>979</v>
+      </c>
+      <c r="B632" t="s">
+        <v>979</v>
+      </c>
+      <c r="I632" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9">
+      <c r="A633" t="s">
+        <v>979</v>
+      </c>
+      <c r="B633" t="s">
+        <v>979</v>
+      </c>
+      <c r="I633" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9">
+      <c r="A634" t="s">
+        <v>988</v>
+      </c>
+      <c r="B634" t="s">
+        <v>988</v>
+      </c>
+      <c r="I634" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9">
+      <c r="A635" t="s">
+        <v>988</v>
+      </c>
+      <c r="B635" t="s">
+        <v>988</v>
+      </c>
+      <c r="I635" t="s">
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>